--- a/test_fixtures/san_joaquin/cadoj_san_joaquin_source.xlsx
+++ b/test_fixtures/san_joaquin/cadoj_san_joaquin_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/go/src/gogen/test_fixtures/san_joaquin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CAF05-5CF1-5143-9C8D-22F18BCAD87B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E4C28-DBF8-4744-AA19-1AC5B74D6AA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2123,121 +2123,120 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV43"/>
+  <dimension ref="B1:IW43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CH1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.1640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.1640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="1" customWidth="1"/>
-    <col min="41" max="41" width="16.1640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5" style="1" customWidth="1"/>
-    <col min="43" max="43" width="21.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="20.33203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="14.1640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="15.1640625" style="1" customWidth="1"/>
-    <col min="48" max="49" width="19.6640625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="28.6640625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7" style="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="37.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.6640625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6640625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.6640625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="23.33203125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="21.6640625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5" style="1" customWidth="1"/>
-    <col min="64" max="64" width="21.5" style="1" customWidth="1"/>
-    <col min="65" max="65" width="19.33203125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="24.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="15.1640625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.1640625" style="1" customWidth="1"/>
-    <col min="69" max="69" width="20" style="1" customWidth="1"/>
-    <col min="70" max="70" width="13" style="1" customWidth="1"/>
-    <col min="71" max="71" width="16.33203125" style="1" customWidth="1"/>
-    <col min="72" max="73" width="17.1640625" style="1" customWidth="1"/>
-    <col min="74" max="76" width="16.6640625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="18" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.6640625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="12.1640625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="11" style="1" customWidth="1"/>
-    <col min="81" max="81" width="26.33203125" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.83203125" style="1" customWidth="1"/>
-    <col min="83" max="83" width="17.6640625" style="1" customWidth="1"/>
-    <col min="84" max="84" width="14.33203125" style="1" customWidth="1"/>
-    <col min="85" max="85" width="12.6640625" style="1" customWidth="1"/>
-    <col min="86" max="86" width="16" style="1" customWidth="1"/>
-    <col min="87" max="87" width="16.83203125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="13.5" style="1" customWidth="1"/>
-    <col min="89" max="89" width="16.5" style="1" customWidth="1"/>
-    <col min="90" max="90" width="17.5" style="1" customWidth="1"/>
-    <col min="91" max="91" width="9.33203125" style="1" customWidth="1"/>
-    <col min="92" max="92" width="8.83203125" style="1" customWidth="1"/>
-    <col min="93" max="93" width="15.33203125" style="1" customWidth="1"/>
-    <col min="94" max="94" width="26.83203125" style="1" customWidth="1"/>
-    <col min="95" max="95" width="12.5" style="1" customWidth="1"/>
-    <col min="96" max="96" width="12.6640625" style="1" customWidth="1"/>
-    <col min="97" max="97" width="22.1640625" style="1" customWidth="1"/>
-    <col min="98" max="98" width="23.6640625" style="1" customWidth="1"/>
-    <col min="99" max="99" width="19.6640625" style="1" customWidth="1"/>
-    <col min="100" max="100" width="16.83203125" style="1" customWidth="1"/>
-    <col min="101" max="101" width="16.1640625" style="1" customWidth="1"/>
-    <col min="102" max="102" width="23.5" style="1" customWidth="1"/>
-    <col min="103" max="103" width="23.1640625" style="1" customWidth="1"/>
-    <col min="104" max="104" width="20.5" style="1" customWidth="1"/>
-    <col min="105" max="105" width="9.33203125" style="1" customWidth="1"/>
-    <col min="106" max="106" width="25.5" style="1" customWidth="1"/>
-    <col min="107" max="107" width="24.6640625" style="1" customWidth="1"/>
-    <col min="108" max="256" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.5" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.6640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="20.33203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.1640625" style="1" customWidth="1"/>
+    <col min="49" max="50" width="19.6640625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="28.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.5" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.83203125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="37.6640625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.6640625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="18.6640625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.6640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="18.33203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="23.33203125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="21.6640625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="20.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="21.5" style="1" customWidth="1"/>
+    <col min="66" max="66" width="19.33203125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="24.33203125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15.1640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="17.1640625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="20" style="1" customWidth="1"/>
+    <col min="71" max="71" width="13" style="1" customWidth="1"/>
+    <col min="72" max="72" width="16.33203125" style="1" customWidth="1"/>
+    <col min="73" max="74" width="17.1640625" style="1" customWidth="1"/>
+    <col min="75" max="77" width="16.6640625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="18" style="1" customWidth="1"/>
+    <col min="79" max="79" width="17.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="12.1640625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="11" style="1" customWidth="1"/>
+    <col min="82" max="82" width="26.33203125" style="1" customWidth="1"/>
+    <col min="83" max="83" width="16.83203125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="17.6640625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="14.33203125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="12.6640625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="16" style="1" customWidth="1"/>
+    <col min="88" max="88" width="16.83203125" style="1" customWidth="1"/>
+    <col min="89" max="89" width="13.5" style="1" customWidth="1"/>
+    <col min="90" max="90" width="16.5" style="1" customWidth="1"/>
+    <col min="91" max="91" width="17.5" style="1" customWidth="1"/>
+    <col min="92" max="92" width="9.33203125" style="1" customWidth="1"/>
+    <col min="93" max="93" width="8.83203125" style="1" customWidth="1"/>
+    <col min="94" max="94" width="15.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="26.83203125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="12.5" style="1" customWidth="1"/>
+    <col min="97" max="97" width="12.6640625" style="1" customWidth="1"/>
+    <col min="98" max="98" width="22.1640625" style="1" customWidth="1"/>
+    <col min="99" max="99" width="23.6640625" style="1" customWidth="1"/>
+    <col min="100" max="100" width="19.6640625" style="1" customWidth="1"/>
+    <col min="101" max="101" width="16.83203125" style="1" customWidth="1"/>
+    <col min="102" max="102" width="16.1640625" style="1" customWidth="1"/>
+    <col min="103" max="103" width="23.5" style="1" customWidth="1"/>
+    <col min="104" max="104" width="23.1640625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="20.5" style="1" customWidth="1"/>
+    <col min="106" max="106" width="9.33203125" style="1" customWidth="1"/>
+    <col min="107" max="107" width="25.5" style="1" customWidth="1"/>
+    <col min="108" max="108" width="24.6640625" style="1" customWidth="1"/>
+    <col min="109" max="257" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+    <row r="1" spans="2:108" s="33" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
@@ -2246,9 +2245,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
-      <c r="L1" s="32" t="s">
-        <v>211</v>
-      </c>
+      <c r="L1" s="32"/>
       <c r="M1" s="32" t="s">
         <v>211</v>
       </c>
@@ -2258,17 +2255,19 @@
       <c r="O1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="32"/>
+      <c r="P1" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
       <c r="AA1" s="32"/>
@@ -2282,39 +2281,39 @@
       <c r="AI1" s="32"/>
       <c r="AJ1" s="32"/>
       <c r="AK1" s="32"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AM1" s="32"/>
       <c r="AN1" s="32"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AP1" s="32"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
       <c r="AS1" s="32"/>
       <c r="AT1" s="32"/>
-      <c r="AU1" s="32" t="s">
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32" t="s">
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AX1" s="32"/>
       <c r="AY1" s="32"/>
-      <c r="AZ1" s="32" t="s">
-        <v>211</v>
-      </c>
+      <c r="AZ1" s="32"/>
       <c r="BA1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32" t="s">
+      <c r="BB1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="BD1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="BE1" s="32"/>
       <c r="BF1" s="32"/>
       <c r="BG1" s="32"/>
@@ -2339,34 +2338,32 @@
       <c r="BZ1" s="32"/>
       <c r="CA1" s="32"/>
       <c r="CB1" s="32"/>
-      <c r="CC1" s="32" t="s">
+      <c r="CC1" s="32"/>
+      <c r="CD1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32" t="s">
+      <c r="CE1" s="32"/>
+      <c r="CF1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="CF1" s="32"/>
       <c r="CG1" s="32"/>
       <c r="CH1" s="32"/>
-      <c r="CI1" s="32" t="s">
-        <v>211</v>
-      </c>
+      <c r="CI1" s="32"/>
       <c r="CJ1" s="32" t="s">
         <v>211</v>
       </c>
       <c r="CK1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="CL1" s="32"/>
-      <c r="CM1" s="32" t="s">
+      <c r="CL1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="CN1" s="32"/>
+      <c r="CM1" s="32"/>
+      <c r="CN1" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="CO1" s="32"/>
-      <c r="CP1" s="32" t="s">
-        <v>211</v>
-      </c>
+      <c r="CP1" s="32"/>
       <c r="CQ1" s="32" t="s">
         <v>211</v>
       </c>
@@ -2406,337 +2403,339 @@
       <c r="DC1" s="32" t="s">
         <v>211</v>
       </c>
+      <c r="DD1" s="32" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:108" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CE2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CF2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CG2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CN2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CQ2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="CX2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="CZ2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="DA2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DB2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="2" t="s">
+      <c r="DD2" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
+    <row r="3" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>18675309</v>
       </c>
-      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2744,17 +2743,17 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="5">
+      <c r="L3" s="6"/>
+      <c r="M3" s="5">
         <v>1008675309</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5">
+      <c r="O3" s="6"/>
+      <c r="P3" s="5">
         <v>19600314</v>
       </c>
-      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -2779,38 +2778,38 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
-      <c r="AO3" s="5">
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="5">
         <v>19790525</v>
       </c>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
-      <c r="AW3" s="7" t="s">
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="23">
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="23">
         <v>101001001000</v>
       </c>
-      <c r="AZ3" s="6"/>
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
-      <c r="BC3" s="7" t="s">
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BE3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
@@ -2833,14 +2832,14 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
-      <c r="CC3" s="7" t="s">
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="7" t="s">
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="CF3" s="6"/>
       <c r="CG3" s="6"/>
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
@@ -2858,20 +2857,20 @@
       <c r="CU3" s="6"/>
       <c r="CV3" s="6"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="28"/>
+      <c r="CX3" s="6"/>
       <c r="CY3" s="28"/>
-      <c r="CZ3" s="6"/>
+      <c r="CZ3" s="28"/>
       <c r="DA3" s="6"/>
       <c r="DB3" s="6"/>
       <c r="DC3" s="6"/>
+      <c r="DD3" s="6"/>
     </row>
-    <row r="4" spans="1:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+    <row r="4" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
         <v>18675309</v>
       </c>
-      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -2879,17 +2878,17 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="10">
+      <c r="L4" s="11"/>
+      <c r="M4" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="10">
+      <c r="O4" s="11"/>
+      <c r="P4" s="10">
         <v>19600314</v>
       </c>
-      <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2914,40 +2913,40 @@
       <c r="AL4" s="11"/>
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="10">
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="10">
         <v>19790601</v>
       </c>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="11"/>
       <c r="AS4" s="11"/>
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
-      <c r="AW4" s="12" t="s">
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="24">
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="24">
         <v>101001002000</v>
       </c>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="10">
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="10">
         <v>12345</v>
       </c>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="12" t="s">
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BF4" s="11"/>
       <c r="BG4" s="11"/>
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
@@ -2970,28 +2969,28 @@
       <c r="BZ4" s="11"/>
       <c r="CA4" s="11"/>
       <c r="CB4" s="11"/>
-      <c r="CC4" s="12" t="s">
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="CD4" s="12" t="s">
+      <c r="CE4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="CE4" s="12" t="s">
+      <c r="CF4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF4" s="11"/>
       <c r="CG4" s="11"/>
       <c r="CH4" s="11"/>
-      <c r="CI4" s="12" t="s">
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="CJ4" s="10">
+      <c r="CK4" s="10">
         <v>90</v>
       </c>
-      <c r="CK4" s="12" t="s">
+      <c r="CL4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="CL4" s="11"/>
       <c r="CM4" s="11"/>
       <c r="CN4" s="11"/>
       <c r="CO4" s="11"/>
@@ -3003,20 +3002,20 @@
       <c r="CU4" s="11"/>
       <c r="CV4" s="11"/>
       <c r="CW4" s="11"/>
-      <c r="CX4" s="29"/>
+      <c r="CX4" s="11"/>
       <c r="CY4" s="29"/>
-      <c r="CZ4" s="11"/>
+      <c r="CZ4" s="29"/>
       <c r="DA4" s="11"/>
       <c r="DB4" s="11"/>
       <c r="DC4" s="11"/>
+      <c r="DD4" s="11"/>
     </row>
-    <row r="5" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10">
+    <row r="5" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10">
         <v>18675309</v>
       </c>
-      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3024,17 +3023,17 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10">
+      <c r="L5" s="11"/>
+      <c r="M5" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10">
+      <c r="O5" s="11"/>
+      <c r="P5" s="10">
         <v>19600314</v>
       </c>
-      <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -3059,38 +3058,38 @@
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="10">
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="10">
         <v>19810410</v>
       </c>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="12" t="s">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
-      <c r="AW5" s="12" t="s">
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="24">
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="24">
         <v>101001003000</v>
       </c>
-      <c r="AZ5" s="11"/>
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
-      <c r="BC5" s="12" t="s">
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="BD5" s="12" t="s">
+      <c r="BE5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BE5" s="12" t="s">
+      <c r="BF5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BF5" s="11"/>
       <c r="BG5" s="11"/>
       <c r="BH5" s="11"/>
       <c r="BI5" s="11"/>
@@ -3114,13 +3113,13 @@
       <c r="CA5" s="11"/>
       <c r="CB5" s="11"/>
       <c r="CC5" s="11"/>
-      <c r="CD5" s="12" t="s">
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="CE5" s="12" t="s">
+      <c r="CF5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
       <c r="CH5" s="11"/>
       <c r="CI5" s="11"/>
@@ -3138,20 +3137,20 @@
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
       <c r="CW5" s="11"/>
-      <c r="CX5" s="29"/>
+      <c r="CX5" s="11"/>
       <c r="CY5" s="29"/>
-      <c r="CZ5" s="11"/>
+      <c r="CZ5" s="29"/>
       <c r="DA5" s="11"/>
       <c r="DB5" s="11"/>
       <c r="DC5" s="11"/>
+      <c r="DD5" s="11"/>
     </row>
-    <row r="6" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
+    <row r="6" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10">
         <v>18675309</v>
       </c>
-      <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3159,17 +3158,17 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="10">
+      <c r="L6" s="11"/>
+      <c r="M6" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10">
+      <c r="O6" s="11"/>
+      <c r="P6" s="10">
         <v>19600314</v>
       </c>
-      <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -3194,35 +3193,35 @@
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="10">
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="10">
         <v>19810410</v>
       </c>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="12" t="s">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
-      <c r="AW6" s="12" t="s">
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="24">
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="24">
         <v>101001004000</v>
       </c>
-      <c r="AZ6" s="11"/>
       <c r="BA6" s="11"/>
       <c r="BB6" s="11"/>
-      <c r="BC6" s="12" t="s">
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BE6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BE6" s="11"/>
       <c r="BF6" s="11"/>
       <c r="BG6" s="11"/>
       <c r="BH6" s="11"/>
@@ -3246,41 +3245,39 @@
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
       <c r="CB6" s="11"/>
-      <c r="CC6" s="12" t="s">
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="CD6" s="12" t="s">
+      <c r="CE6" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="CE6" s="12" t="s">
+      <c r="CF6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="CF6" s="11"/>
       <c r="CG6" s="11"/>
       <c r="CH6" s="11"/>
-      <c r="CI6" s="12" t="s">
+      <c r="CI6" s="11"/>
+      <c r="CJ6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="CJ6" s="10">
+      <c r="CK6" s="10">
         <v>30</v>
       </c>
-      <c r="CK6" s="12" t="s">
+      <c r="CL6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="CL6" s="11"/>
       <c r="CM6" s="11"/>
       <c r="CN6" s="11"/>
       <c r="CO6" s="11"/>
       <c r="CP6" s="11"/>
       <c r="CQ6" s="11"/>
-      <c r="CR6" s="10">
+      <c r="CR6" s="11"/>
+      <c r="CS6" s="10">
         <v>12345</v>
       </c>
-      <c r="CS6" s="10">
+      <c r="CT6" s="10">
         <v>4</v>
-      </c>
-      <c r="CT6" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="CU6" s="12" t="s">
         <v>126</v>
@@ -3289,34 +3286,36 @@
         <v>126</v>
       </c>
       <c r="CW6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="CX6" s="29">
+      <c r="CY6" s="29">
         <v>38.6</v>
       </c>
-      <c r="CY6" s="29">
+      <c r="CZ6" s="29">
         <v>5.7</v>
       </c>
-      <c r="CZ6" s="10">
+      <c r="DA6" s="10">
         <v>1</v>
       </c>
-      <c r="DA6" s="12" t="s">
+      <c r="DB6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB6" s="12" t="s">
+      <c r="DC6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="DC6" s="12" t="s">
+      <c r="DD6" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
+    <row r="7" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10">
         <v>18675309</v>
       </c>
-      <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3324,17 +3323,17 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="10">
+      <c r="L7" s="11"/>
+      <c r="M7" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10">
+      <c r="O7" s="11"/>
+      <c r="P7" s="10">
         <v>19600314</v>
       </c>
-      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -3359,38 +3358,38 @@
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="10">
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="10">
         <v>19810410</v>
       </c>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="12" t="s">
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
-      <c r="AW7" s="12" t="s">
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="24">
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="24">
         <v>102001004000</v>
       </c>
-      <c r="AZ7" s="11"/>
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
-      <c r="BC7" s="12" t="s">
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BE7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BF7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF7" s="11"/>
       <c r="BG7" s="11"/>
       <c r="BH7" s="11"/>
       <c r="BI7" s="11"/>
@@ -3414,13 +3413,13 @@
       <c r="CA7" s="11"/>
       <c r="CB7" s="11"/>
       <c r="CC7" s="11"/>
-      <c r="CD7" s="12" t="s">
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CF7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
@@ -3438,20 +3437,20 @@
       <c r="CU7" s="11"/>
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
-      <c r="CX7" s="29"/>
+      <c r="CX7" s="11"/>
       <c r="CY7" s="29"/>
-      <c r="CZ7" s="11"/>
+      <c r="CZ7" s="29"/>
       <c r="DA7" s="11"/>
       <c r="DB7" s="11"/>
       <c r="DC7" s="11"/>
+      <c r="DD7" s="11"/>
     </row>
-    <row r="8" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
+    <row r="8" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10">
         <v>18675309</v>
       </c>
-      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -3459,17 +3458,17 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="10">
+      <c r="L8" s="11"/>
+      <c r="M8" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10">
+      <c r="O8" s="11"/>
+      <c r="P8" s="10">
         <v>19600314</v>
       </c>
-      <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -3494,40 +3493,40 @@
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="10">
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="12" t="s">
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="12" t="s">
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="24">
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="24">
         <v>102001005000</v>
       </c>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="10">
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="10">
         <v>98776</v>
       </c>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="12" t="s">
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BE8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE8" s="12" t="s">
+      <c r="BF8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BF8" s="11"/>
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
       <c r="BI8" s="11"/>
@@ -3550,14 +3549,14 @@
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
-      <c r="CC8" s="12" t="s">
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="12" t="s">
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="11"/>
       <c r="CI8" s="11"/>
@@ -3575,20 +3574,20 @@
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
-      <c r="CX8" s="29"/>
+      <c r="CX8" s="11"/>
       <c r="CY8" s="29"/>
-      <c r="CZ8" s="11"/>
+      <c r="CZ8" s="29"/>
       <c r="DA8" s="11"/>
       <c r="DB8" s="11"/>
       <c r="DC8" s="11"/>
+      <c r="DD8" s="11"/>
     </row>
-    <row r="9" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+    <row r="9" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <v>18675309</v>
       </c>
-      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3596,17 +3595,17 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="10">
+      <c r="L9" s="11"/>
+      <c r="M9" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10">
+      <c r="O9" s="11"/>
+      <c r="P9" s="10">
         <v>19600314</v>
       </c>
-      <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -3631,38 +3630,38 @@
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="10">
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="10">
         <v>20140211</v>
       </c>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="12" t="s">
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
       <c r="AT9" s="11"/>
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
-      <c r="AW9" s="12" t="s">
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="24">
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="24">
         <v>102001006000</v>
       </c>
-      <c r="AZ9" s="11"/>
       <c r="BA9" s="11"/>
       <c r="BB9" s="11"/>
-      <c r="BC9" s="12" t="s">
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BE9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE9" s="12" t="s">
+      <c r="BF9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF9" s="11"/>
       <c r="BG9" s="11"/>
       <c r="BH9" s="11"/>
       <c r="BI9" s="11"/>
@@ -3685,41 +3684,39 @@
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
       <c r="CB9" s="11"/>
-      <c r="CC9" s="12" t="s">
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD9" s="12" t="s">
+      <c r="CE9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE9" s="12" t="s">
+      <c r="CF9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
-      <c r="CI9" s="12" t="s">
+      <c r="CI9" s="11"/>
+      <c r="CJ9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ9" s="10">
+      <c r="CK9" s="10">
         <v>6</v>
       </c>
-      <c r="CK9" s="12" t="s">
+      <c r="CL9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL9" s="11"/>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
       <c r="CO9" s="11"/>
       <c r="CP9" s="11"/>
       <c r="CQ9" s="11"/>
-      <c r="CR9" s="10">
+      <c r="CR9" s="11"/>
+      <c r="CS9" s="10">
         <v>98776</v>
       </c>
-      <c r="CS9" s="10">
+      <c r="CT9" s="10">
         <v>4</v>
-      </c>
-      <c r="CT9" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="CU9" s="12" t="s">
         <v>126</v>
@@ -3728,34 +3725,36 @@
         <v>126</v>
       </c>
       <c r="CW9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX9" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="CX9" s="29">
-        <v>5.7</v>
       </c>
       <c r="CY9" s="29">
         <v>5.7</v>
       </c>
-      <c r="CZ9" s="10">
+      <c r="CZ9" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="DA9" s="10">
         <v>1</v>
       </c>
-      <c r="DA9" s="12" t="s">
+      <c r="DB9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB9" s="12" t="s">
+      <c r="DC9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="DC9" s="12" t="s">
+      <c r="DD9" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+    <row r="10" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
         <v>18675309</v>
       </c>
-      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3763,17 +3762,17 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="10">
+      <c r="L10" s="11"/>
+      <c r="M10" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10">
+      <c r="O10" s="11"/>
+      <c r="P10" s="10">
         <v>19600314</v>
       </c>
-      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -3798,35 +3797,35 @@
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="10">
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="10">
         <v>20140211</v>
       </c>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="12" t="s">
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR10" s="11"/>
       <c r="AS10" s="11"/>
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="12" t="s">
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="24">
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="24">
         <v>102001007000</v>
       </c>
-      <c r="AZ10" s="11"/>
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
-      <c r="BC10" s="12" t="s">
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BE10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE10" s="11"/>
       <c r="BF10" s="11"/>
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
@@ -3850,41 +3849,39 @@
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
       <c r="CB10" s="11"/>
-      <c r="CC10" s="12" t="s">
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD10" s="12" t="s">
+      <c r="CE10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE10" s="12" t="s">
+      <c r="CF10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF10" s="11"/>
       <c r="CG10" s="11"/>
       <c r="CH10" s="11"/>
-      <c r="CI10" s="12" t="s">
+      <c r="CI10" s="11"/>
+      <c r="CJ10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ10" s="10">
+      <c r="CK10" s="10">
         <v>6</v>
       </c>
-      <c r="CK10" s="12" t="s">
+      <c r="CL10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL10" s="11"/>
       <c r="CM10" s="11"/>
       <c r="CN10" s="11"/>
       <c r="CO10" s="11"/>
       <c r="CP10" s="11"/>
       <c r="CQ10" s="11"/>
-      <c r="CR10" s="10">
+      <c r="CR10" s="11"/>
+      <c r="CS10" s="10">
         <v>98776</v>
       </c>
-      <c r="CS10" s="10">
+      <c r="CT10" s="10">
         <v>4</v>
-      </c>
-      <c r="CT10" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="CU10" s="12" t="s">
         <v>126</v>
@@ -3893,34 +3890,36 @@
         <v>126</v>
       </c>
       <c r="CW10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX10" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="CX10" s="29">
-        <v>5.7</v>
       </c>
       <c r="CY10" s="29">
         <v>5.7</v>
       </c>
-      <c r="CZ10" s="10">
+      <c r="CZ10" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="DA10" s="10">
         <v>1</v>
       </c>
-      <c r="DA10" s="12" t="s">
+      <c r="DB10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB10" s="12" t="s">
+      <c r="DC10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="DC10" s="12" t="s">
+      <c r="DD10" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15">
+    <row r="11" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
         <v>17954908</v>
       </c>
-      <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -3928,17 +3927,17 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="15">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="15">
+      <c r="O11" s="16"/>
+      <c r="P11" s="15">
         <v>19850822</v>
       </c>
-      <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
@@ -3963,38 +3962,38 @@
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="16"/>
-      <c r="AO11" s="15">
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="15">
         <v>19790525</v>
       </c>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="17" t="s">
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="17" t="s">
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="25">
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="25">
         <v>101001007000</v>
       </c>
-      <c r="AZ11" s="16"/>
       <c r="BA11" s="16"/>
       <c r="BB11" s="16"/>
-      <c r="BC11" s="17" t="s">
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="BD11" s="17" t="s">
+      <c r="BE11" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE11" s="17" t="s">
+      <c r="BF11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="BF11" s="16"/>
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="16"/>
@@ -4017,14 +4016,14 @@
       <c r="BZ11" s="16"/>
       <c r="CA11" s="16"/>
       <c r="CB11" s="16"/>
-      <c r="CC11" s="17" t="s">
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="CD11" s="16"/>
-      <c r="CE11" s="17" t="s">
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF11" s="16"/>
       <c r="CG11" s="16"/>
       <c r="CH11" s="16"/>
       <c r="CI11" s="16"/>
@@ -4042,20 +4041,20 @@
       <c r="CU11" s="16"/>
       <c r="CV11" s="16"/>
       <c r="CW11" s="16"/>
-      <c r="CX11" s="27"/>
+      <c r="CX11" s="16"/>
       <c r="CY11" s="27"/>
-      <c r="CZ11" s="16"/>
+      <c r="CZ11" s="27"/>
       <c r="DA11" s="16"/>
       <c r="DB11" s="16"/>
       <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
     </row>
-    <row r="12" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15">
+    <row r="12" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
         <v>17954908</v>
       </c>
-      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -4063,17 +4062,17 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="15">
+      <c r="L12" s="16"/>
+      <c r="M12" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="15">
+      <c r="O12" s="16"/>
+      <c r="P12" s="15">
         <v>19850822</v>
       </c>
-      <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -4098,40 +4097,40 @@
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
-      <c r="AO12" s="15">
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="15">
         <v>19790601</v>
       </c>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="17" t="s">
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
       <c r="AT12" s="16"/>
       <c r="AU12" s="16"/>
       <c r="AV12" s="16"/>
-      <c r="AW12" s="17" t="s">
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="25">
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="25">
         <v>101001008000</v>
       </c>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="15">
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="15">
         <v>998877</v>
       </c>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="17" t="s">
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BD12" s="17" t="s">
+      <c r="BE12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE12" s="17" t="s">
+      <c r="BF12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BF12" s="16"/>
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="16"/>
@@ -4154,77 +4153,77 @@
       <c r="BZ12" s="16"/>
       <c r="CA12" s="16"/>
       <c r="CB12" s="16"/>
-      <c r="CC12" s="17" t="s">
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="CD12" s="17" t="s">
+      <c r="CE12" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="CE12" s="17" t="s">
+      <c r="CF12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF12" s="16"/>
       <c r="CG12" s="16"/>
       <c r="CH12" s="16"/>
-      <c r="CI12" s="17" t="s">
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="CJ12" s="15">
+      <c r="CK12" s="15">
         <v>90</v>
       </c>
-      <c r="CK12" s="17" t="s">
+      <c r="CL12" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="CL12" s="16"/>
       <c r="CM12" s="16"/>
       <c r="CN12" s="16"/>
       <c r="CO12" s="16"/>
       <c r="CP12" s="16"/>
       <c r="CQ12" s="16"/>
-      <c r="CR12" s="17" t="s">
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="CS12" s="15">
+      <c r="CT12" s="15">
         <v>3</v>
-      </c>
-      <c r="CT12" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU12" s="17" t="s">
         <v>126</v>
       </c>
       <c r="CV12" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CW12" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="CW12" s="17" t="s">
+      <c r="CX12" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="CX12" s="27">
+      <c r="CY12" s="27">
         <v>40.4</v>
       </c>
-      <c r="CY12" s="27">
+      <c r="CZ12" s="27">
         <v>38</v>
       </c>
-      <c r="CZ12" s="15">
+      <c r="DA12" s="15">
         <v>2</v>
       </c>
-      <c r="DA12" s="17" t="s">
+      <c r="DB12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="DB12" s="17" t="s">
+      <c r="DC12" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC12" s="17" t="s">
+      <c r="DD12" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15">
+    <row r="13" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>17954908</v>
       </c>
-      <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -4232,17 +4231,17 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="15">
+      <c r="L13" s="16"/>
+      <c r="M13" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="15">
+      <c r="O13" s="16"/>
+      <c r="P13" s="15">
         <v>19850822</v>
       </c>
-      <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -4267,36 +4266,36 @@
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="16"/>
-      <c r="AO13" s="15">
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="15">
         <v>19790601</v>
       </c>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="17" t="s">
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
       <c r="AU13" s="16"/>
       <c r="AV13" s="16"/>
-      <c r="AW13" s="17" t="s">
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="25">
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="25">
         <v>101001009000</v>
       </c>
-      <c r="AZ13" s="16"/>
       <c r="BA13" s="16"/>
       <c r="BB13" s="16"/>
-      <c r="BC13" s="17" t="s">
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="17" t="s">
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="BF13" s="16"/>
       <c r="BG13" s="16"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="16"/>
@@ -4320,10 +4319,10 @@
       <c r="CA13" s="16"/>
       <c r="CB13" s="16"/>
       <c r="CC13" s="16"/>
-      <c r="CD13" s="17" t="s">
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="CE13" s="16"/>
       <c r="CF13" s="16"/>
       <c r="CG13" s="16"/>
       <c r="CH13" s="16"/>
@@ -4342,20 +4341,20 @@
       <c r="CU13" s="16"/>
       <c r="CV13" s="16"/>
       <c r="CW13" s="16"/>
-      <c r="CX13" s="27"/>
+      <c r="CX13" s="16"/>
       <c r="CY13" s="27"/>
-      <c r="CZ13" s="16"/>
+      <c r="CZ13" s="27"/>
       <c r="DA13" s="16"/>
       <c r="DB13" s="16"/>
       <c r="DC13" s="16"/>
+      <c r="DD13" s="16"/>
     </row>
-    <row r="14" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15">
+    <row r="14" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
         <v>17954908</v>
       </c>
-      <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -4363,17 +4362,17 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="15">
+      <c r="L14" s="16"/>
+      <c r="M14" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="15">
+      <c r="O14" s="16"/>
+      <c r="P14" s="15">
         <v>19850822</v>
       </c>
-      <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -4398,40 +4397,40 @@
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="15">
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="15">
         <v>19801101</v>
       </c>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="17" t="s">
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
       <c r="AT14" s="16"/>
       <c r="AU14" s="16"/>
       <c r="AV14" s="16"/>
-      <c r="AW14" s="17" t="s">
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="25">
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="25">
         <v>101001010000</v>
       </c>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="15">
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="15">
         <v>34345</v>
       </c>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="17" t="s">
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="BD14" s="17" t="s">
+      <c r="BE14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE14" s="17" t="s">
+      <c r="BF14" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BF14" s="16"/>
       <c r="BG14" s="16"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="16"/>
@@ -4454,77 +4453,77 @@
       <c r="BZ14" s="16"/>
       <c r="CA14" s="16"/>
       <c r="CB14" s="16"/>
-      <c r="CC14" s="17" t="s">
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="CD14" s="17" t="s">
+      <c r="CE14" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="CE14" s="17" t="s">
+      <c r="CF14" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF14" s="16"/>
       <c r="CG14" s="16"/>
       <c r="CH14" s="16"/>
-      <c r="CI14" s="17" t="s">
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="CJ14" s="15">
+      <c r="CK14" s="15">
         <v>90</v>
       </c>
-      <c r="CK14" s="17" t="s">
+      <c r="CL14" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="CL14" s="16"/>
       <c r="CM14" s="16"/>
       <c r="CN14" s="16"/>
       <c r="CO14" s="16"/>
       <c r="CP14" s="16"/>
       <c r="CQ14" s="16"/>
-      <c r="CR14" s="17" t="s">
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="CS14" s="15">
+      <c r="CT14" s="15">
         <v>3</v>
-      </c>
-      <c r="CT14" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU14" s="17" t="s">
         <v>126</v>
       </c>
       <c r="CV14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CW14" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="CW14" s="17" t="s">
+      <c r="CX14" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="CX14" s="27">
+      <c r="CY14" s="27">
         <v>39</v>
       </c>
-      <c r="CY14" s="27">
+      <c r="CZ14" s="27">
         <v>38</v>
       </c>
-      <c r="CZ14" s="15">
+      <c r="DA14" s="15">
         <v>2</v>
       </c>
-      <c r="DA14" s="17" t="s">
+      <c r="DB14" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="DB14" s="17" t="s">
+      <c r="DC14" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC14" s="17" t="s">
+      <c r="DD14" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15">
+    <row r="15" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15">
         <v>17954908</v>
       </c>
-      <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -4532,17 +4531,17 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="15">
+      <c r="L15" s="16"/>
+      <c r="M15" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15">
+      <c r="O15" s="16"/>
+      <c r="P15" s="15">
         <v>19850822</v>
       </c>
-      <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -4567,35 +4566,35 @@
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
       <c r="AN15" s="16"/>
-      <c r="AO15" s="15">
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="15">
         <v>19811126</v>
       </c>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="17" t="s">
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
       <c r="AT15" s="16"/>
       <c r="AU15" s="16"/>
       <c r="AV15" s="16"/>
-      <c r="AW15" s="17" t="s">
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="25">
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="25">
         <v>101001011000</v>
       </c>
-      <c r="AZ15" s="16"/>
       <c r="BA15" s="16"/>
       <c r="BB15" s="16"/>
-      <c r="BC15" s="17" t="s">
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="BD15" s="17" t="s">
+      <c r="BE15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE15" s="16"/>
       <c r="BF15" s="16"/>
       <c r="BG15" s="16"/>
       <c r="BH15" s="16"/>
@@ -4619,26 +4618,26 @@
       <c r="BZ15" s="16"/>
       <c r="CA15" s="16"/>
       <c r="CB15" s="16"/>
-      <c r="CC15" s="17" t="s">
+      <c r="CC15" s="16"/>
+      <c r="CD15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="CD15" s="16"/>
-      <c r="CE15" s="17" t="s">
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF15" s="16"/>
       <c r="CG15" s="16"/>
       <c r="CH15" s="16"/>
-      <c r="CI15" s="17" t="s">
+      <c r="CI15" s="16"/>
+      <c r="CJ15" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="CJ15" s="15">
+      <c r="CK15" s="15">
         <v>10</v>
       </c>
-      <c r="CK15" s="17" t="s">
+      <c r="CL15" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="CL15" s="16"/>
       <c r="CM15" s="16"/>
       <c r="CN15" s="16"/>
       <c r="CO15" s="16"/>
@@ -4650,20 +4649,20 @@
       <c r="CU15" s="16"/>
       <c r="CV15" s="16"/>
       <c r="CW15" s="16"/>
-      <c r="CX15" s="27"/>
+      <c r="CX15" s="16"/>
       <c r="CY15" s="27"/>
-      <c r="CZ15" s="16"/>
+      <c r="CZ15" s="27"/>
       <c r="DA15" s="16"/>
       <c r="DB15" s="16"/>
       <c r="DC15" s="16"/>
+      <c r="DD15" s="16"/>
     </row>
-    <row r="16" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
+    <row r="16" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
         <v>23675654</v>
       </c>
-      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4671,17 +4670,17 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="10">
+      <c r="L16" s="11"/>
+      <c r="M16" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10">
+      <c r="O16" s="11"/>
+      <c r="P16" s="10">
         <v>19600314</v>
       </c>
-      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -4706,38 +4705,38 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="10">
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="12" t="s">
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR16" s="11"/>
       <c r="AS16" s="11"/>
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
-      <c r="AW16" s="12" t="s">
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="24">
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="24">
         <v>101001012000</v>
       </c>
-      <c r="AZ16" s="11"/>
       <c r="BA16" s="11"/>
       <c r="BB16" s="11"/>
-      <c r="BC16" s="12" t="s">
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BD16" s="12" t="s">
+      <c r="BE16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE16" s="12" t="s">
+      <c r="BF16" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF16" s="11"/>
       <c r="BG16" s="11"/>
       <c r="BH16" s="11"/>
       <c r="BI16" s="11"/>
@@ -4760,41 +4759,39 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
       <c r="CB16" s="11"/>
-      <c r="CC16" s="12" t="s">
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD16" s="12" t="s">
+      <c r="CE16" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE16" s="12" t="s">
+      <c r="CF16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF16" s="11"/>
       <c r="CG16" s="11"/>
       <c r="CH16" s="11"/>
-      <c r="CI16" s="12" t="s">
+      <c r="CI16" s="11"/>
+      <c r="CJ16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ16" s="10">
+      <c r="CK16" s="10">
         <v>6</v>
       </c>
-      <c r="CK16" s="12" t="s">
+      <c r="CL16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
       <c r="CO16" s="11"/>
-      <c r="CP16" s="12" t="s">
+      <c r="CP16" s="11"/>
+      <c r="CQ16" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
-      <c r="CS16" s="10">
+      <c r="CS16" s="11"/>
+      <c r="CT16" s="10">
         <v>4</v>
-      </c>
-      <c r="CT16" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="CU16" s="12" t="s">
         <v>126</v>
@@ -4803,34 +4800,36 @@
         <v>126</v>
       </c>
       <c r="CW16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX16" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="CX16" s="29">
-        <v>38.6</v>
       </c>
       <c r="CY16" s="29">
         <v>38.6</v>
       </c>
-      <c r="CZ16" s="10">
+      <c r="CZ16" s="29">
+        <v>38.6</v>
+      </c>
+      <c r="DA16" s="10">
         <v>4</v>
       </c>
-      <c r="DA16" s="12" t="s">
+      <c r="DB16" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB16" s="12" t="s">
+      <c r="DC16" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="DC16" s="12" t="s">
+      <c r="DD16" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10">
+    <row r="17" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10">
         <v>23675654</v>
       </c>
-      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -4838,17 +4837,17 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="10">
+      <c r="L17" s="11"/>
+      <c r="M17" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10">
+      <c r="O17" s="11"/>
+      <c r="P17" s="10">
         <v>19600314</v>
       </c>
-      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -4873,38 +4872,38 @@
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
-      <c r="AO17" s="10">
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="12" t="s">
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR17" s="11"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
-      <c r="AW17" s="12" t="s">
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="24">
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="24">
         <v>101001013000</v>
       </c>
-      <c r="AZ17" s="11"/>
       <c r="BA17" s="11"/>
       <c r="BB17" s="11"/>
-      <c r="BC17" s="12" t="s">
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="BD17" s="12" t="s">
+      <c r="BE17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE17" s="12" t="s">
+      <c r="BF17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF17" s="11"/>
       <c r="BG17" s="11"/>
       <c r="BH17" s="11"/>
       <c r="BI17" s="11"/>
@@ -4927,28 +4926,28 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
       <c r="CB17" s="11"/>
-      <c r="CC17" s="12" t="s">
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD17" s="12" t="s">
+      <c r="CE17" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE17" s="12" t="s">
+      <c r="CF17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF17" s="11"/>
       <c r="CG17" s="11"/>
       <c r="CH17" s="11"/>
-      <c r="CI17" s="12" t="s">
+      <c r="CI17" s="11"/>
+      <c r="CJ17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ17" s="10">
+      <c r="CK17" s="10">
         <v>6</v>
       </c>
-      <c r="CK17" s="12" t="s">
+      <c r="CL17" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL17" s="11"/>
       <c r="CM17" s="11"/>
       <c r="CN17" s="11"/>
       <c r="CO17" s="11"/>
@@ -4960,20 +4959,20 @@
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
-      <c r="CX17" s="29"/>
+      <c r="CX17" s="11"/>
       <c r="CY17" s="29"/>
-      <c r="CZ17" s="11"/>
+      <c r="CZ17" s="29"/>
       <c r="DA17" s="11"/>
       <c r="DB17" s="11"/>
       <c r="DC17" s="11"/>
+      <c r="DD17" s="11"/>
     </row>
-    <row r="18" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10">
+    <row r="18" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10">
         <v>23675654</v>
       </c>
-      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -4981,17 +4980,17 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="10">
+      <c r="L18" s="11"/>
+      <c r="M18" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10">
+      <c r="O18" s="11"/>
+      <c r="P18" s="10">
         <v>19600314</v>
       </c>
-      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -5016,38 +5015,38 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="10">
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="10">
         <v>19810311</v>
       </c>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="12" t="s">
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
-      <c r="AW18" s="12" t="s">
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="24">
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="24">
         <v>101001014000</v>
       </c>
-      <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
       <c r="BB18" s="11"/>
-      <c r="BC18" s="12" t="s">
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="BD18" s="12" t="s">
+      <c r="BE18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE18" s="12" t="s">
+      <c r="BF18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF18" s="11"/>
       <c r="BG18" s="11"/>
       <c r="BH18" s="11"/>
       <c r="BI18" s="11"/>
@@ -5070,28 +5069,28 @@
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
-      <c r="CC18" s="12" t="s">
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD18" s="12" t="s">
+      <c r="CE18" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE18" s="12" t="s">
+      <c r="CF18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF18" s="11"/>
       <c r="CG18" s="11"/>
       <c r="CH18" s="11"/>
-      <c r="CI18" s="12" t="s">
+      <c r="CI18" s="11"/>
+      <c r="CJ18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ18" s="10">
+      <c r="CK18" s="10">
         <v>6</v>
       </c>
-      <c r="CK18" s="12" t="s">
+      <c r="CL18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
@@ -5103,20 +5102,20 @@
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
-      <c r="CX18" s="29"/>
+      <c r="CX18" s="11"/>
       <c r="CY18" s="29"/>
-      <c r="CZ18" s="11"/>
+      <c r="CZ18" s="29"/>
       <c r="DA18" s="11"/>
       <c r="DB18" s="11"/>
       <c r="DC18" s="11"/>
+      <c r="DD18" s="11"/>
     </row>
-    <row r="19" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10">
+    <row r="19" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
         <v>23675654</v>
       </c>
-      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -5124,17 +5123,17 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="10">
+      <c r="L19" s="11"/>
+      <c r="M19" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10">
+      <c r="O19" s="11"/>
+      <c r="P19" s="10">
         <v>19600314</v>
       </c>
-      <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -5159,38 +5158,38 @@
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
-      <c r="AO19" s="10">
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="10">
         <v>19810211</v>
       </c>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="12" t="s">
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
-      <c r="AW19" s="12" t="s">
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="24">
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="24">
         <v>101001015000</v>
       </c>
-      <c r="AZ19" s="11"/>
       <c r="BA19" s="11"/>
       <c r="BB19" s="11"/>
-      <c r="BC19" s="12" t="s">
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BD19" s="12" t="s">
+      <c r="BE19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE19" s="12" t="s">
+      <c r="BF19" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BF19" s="11"/>
       <c r="BG19" s="11"/>
       <c r="BH19" s="11"/>
       <c r="BI19" s="11"/>
@@ -5213,39 +5212,37 @@
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
       <c r="CB19" s="11"/>
-      <c r="CC19" s="12" t="s">
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD19" s="12" t="s">
+      <c r="CE19" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CE19" s="12" t="s">
+      <c r="CF19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF19" s="11"/>
       <c r="CG19" s="11"/>
       <c r="CH19" s="11"/>
-      <c r="CI19" s="12" t="s">
+      <c r="CI19" s="11"/>
+      <c r="CJ19" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ19" s="10">
+      <c r="CK19" s="10">
         <v>6</v>
       </c>
-      <c r="CK19" s="12" t="s">
+      <c r="CL19" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
-      <c r="CS19" s="10">
+      <c r="CS19" s="11"/>
+      <c r="CT19" s="10">
         <v>4</v>
-      </c>
-      <c r="CT19" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="CU19" s="12" t="s">
         <v>126</v>
@@ -5254,34 +5251,36 @@
         <v>126</v>
       </c>
       <c r="CW19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="CX19" s="29">
+      <c r="CY19" s="29">
         <v>38.700000000000003</v>
       </c>
-      <c r="CY19" s="29">
+      <c r="CZ19" s="29">
         <v>38.6</v>
       </c>
-      <c r="CZ19" s="10">
+      <c r="DA19" s="10">
         <v>4</v>
       </c>
-      <c r="DA19" s="12" t="s">
+      <c r="DB19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB19" s="12" t="s">
+      <c r="DC19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="DC19" s="12" t="s">
+      <c r="DD19" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10">
+    <row r="20" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10">
         <v>23675654</v>
       </c>
-      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -5289,17 +5288,17 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="10">
+      <c r="L20" s="11"/>
+      <c r="M20" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10">
+      <c r="O20" s="11"/>
+      <c r="P20" s="10">
         <v>19600314</v>
       </c>
-      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -5324,38 +5323,38 @@
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="10">
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="12" t="s">
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="12" t="s">
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="24">
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="24">
         <v>101001016000</v>
       </c>
-      <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
       <c r="BB20" s="11"/>
-      <c r="BC20" s="12" t="s">
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="BD20" s="12" t="s">
+      <c r="BE20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE20" s="12" t="s">
+      <c r="BF20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
       <c r="BH20" s="11"/>
       <c r="BI20" s="11"/>
@@ -5378,26 +5377,26 @@
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
       <c r="CB20" s="11"/>
-      <c r="CC20" s="12" t="s">
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="CD20" s="11"/>
-      <c r="CE20" s="12" t="s">
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF20" s="11"/>
       <c r="CG20" s="11"/>
       <c r="CH20" s="11"/>
-      <c r="CI20" s="12" t="s">
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="CJ20" s="10">
+      <c r="CK20" s="10">
         <v>6</v>
       </c>
-      <c r="CK20" s="12" t="s">
+      <c r="CL20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
@@ -5409,20 +5408,20 @@
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
-      <c r="CX20" s="29"/>
+      <c r="CX20" s="11"/>
       <c r="CY20" s="29"/>
-      <c r="CZ20" s="11"/>
+      <c r="CZ20" s="29"/>
       <c r="DA20" s="11"/>
       <c r="DB20" s="11"/>
       <c r="DC20" s="11"/>
+      <c r="DD20" s="11"/>
     </row>
-    <row r="21" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15">
+    <row r="21" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15">
         <v>90675321</v>
       </c>
-      <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -5430,17 +5429,17 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="N21" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="15">
+      <c r="O21" s="16"/>
+      <c r="P21" s="15">
         <v>19600514</v>
       </c>
-      <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
@@ -5465,38 +5464,38 @@
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
-      <c r="AO21" s="15">
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="15">
         <v>19810411</v>
       </c>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="17" t="s">
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16"/>
-      <c r="AW21" s="17" t="s">
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="25">
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="25">
         <v>101001017000</v>
       </c>
-      <c r="AZ21" s="16"/>
       <c r="BA21" s="16"/>
       <c r="BB21" s="16"/>
-      <c r="BC21" s="17" t="s">
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD21" s="17" t="s">
+      <c r="BE21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE21" s="17" t="s">
+      <c r="BF21" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="BF21" s="16"/>
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="16"/>
@@ -5519,75 +5518,75 @@
       <c r="BZ21" s="16"/>
       <c r="CA21" s="16"/>
       <c r="CB21" s="16"/>
-      <c r="CC21" s="17" t="s">
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD21" s="17" t="s">
+      <c r="CE21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE21" s="17" t="s">
+      <c r="CF21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF21" s="16"/>
       <c r="CG21" s="16"/>
       <c r="CH21" s="16"/>
-      <c r="CI21" s="17" t="s">
+      <c r="CI21" s="16"/>
+      <c r="CJ21" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ21" s="15">
+      <c r="CK21" s="15">
         <v>6</v>
       </c>
-      <c r="CK21" s="17" t="s">
+      <c r="CL21" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL21" s="16"/>
       <c r="CM21" s="16"/>
       <c r="CN21" s="16"/>
       <c r="CO21" s="16"/>
       <c r="CP21" s="16"/>
       <c r="CQ21" s="16"/>
       <c r="CR21" s="16"/>
-      <c r="CS21" s="15">
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="15">
         <v>3</v>
       </c>
-      <c r="CT21" s="17" t="s">
+      <c r="CU21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="CU21" s="17" t="s">
+      <c r="CV21" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="CV21" s="17" t="s">
+      <c r="CW21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="CW21" s="17" t="s">
+      <c r="CX21" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CX21" s="27">
+      <c r="CY21" s="27">
         <v>38.6</v>
       </c>
-      <c r="CY21" s="27">
+      <c r="CZ21" s="27">
         <v>2.7</v>
       </c>
-      <c r="CZ21" s="15">
+      <c r="DA21" s="15">
         <v>2</v>
       </c>
-      <c r="DA21" s="17" t="s">
+      <c r="DB21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB21" s="17" t="s">
+      <c r="DC21" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="DC21" s="17" t="s">
+      <c r="DD21" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15">
+    <row r="22" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15">
         <v>90675321</v>
       </c>
-      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -5595,17 +5594,17 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="N22" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="15">
+      <c r="O22" s="16"/>
+      <c r="P22" s="15">
         <v>19600514</v>
       </c>
-      <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -5630,38 +5629,38 @@
       <c r="AL22" s="16"/>
       <c r="AM22" s="16"/>
       <c r="AN22" s="16"/>
-      <c r="AO22" s="15">
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="15">
         <v>19810411</v>
       </c>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="17" t="s">
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR22" s="16"/>
       <c r="AS22" s="16"/>
       <c r="AT22" s="16"/>
       <c r="AU22" s="16"/>
       <c r="AV22" s="16"/>
-      <c r="AW22" s="17" t="s">
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="25">
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="25">
         <v>101001018000</v>
       </c>
-      <c r="AZ22" s="16"/>
       <c r="BA22" s="16"/>
       <c r="BB22" s="16"/>
-      <c r="BC22" s="17" t="s">
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="BD22" s="17" t="s">
+      <c r="BE22" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE22" s="17" t="s">
+      <c r="BF22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="BF22" s="16"/>
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="16"/>
@@ -5684,28 +5683,28 @@
       <c r="BZ22" s="16"/>
       <c r="CA22" s="16"/>
       <c r="CB22" s="16"/>
-      <c r="CC22" s="17" t="s">
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="CD22" s="17" t="s">
+      <c r="CE22" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="CE22" s="17" t="s">
+      <c r="CF22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF22" s="16"/>
       <c r="CG22" s="16"/>
       <c r="CH22" s="16"/>
-      <c r="CI22" s="17" t="s">
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CJ22" s="15">
+      <c r="CK22" s="15">
         <v>6</v>
       </c>
-      <c r="CK22" s="17" t="s">
+      <c r="CL22" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL22" s="16"/>
       <c r="CM22" s="16"/>
       <c r="CN22" s="16"/>
       <c r="CO22" s="16"/>
@@ -5717,20 +5716,20 @@
       <c r="CU22" s="16"/>
       <c r="CV22" s="16"/>
       <c r="CW22" s="16"/>
-      <c r="CX22" s="27"/>
+      <c r="CX22" s="16"/>
       <c r="CY22" s="27"/>
-      <c r="CZ22" s="16"/>
+      <c r="CZ22" s="27"/>
       <c r="DA22" s="16"/>
       <c r="DB22" s="16"/>
       <c r="DC22" s="16"/>
+      <c r="DD22" s="16"/>
     </row>
-    <row r="23" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15">
+    <row r="23" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15">
         <v>90675321</v>
       </c>
-      <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -5738,17 +5737,17 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="16"/>
+      <c r="M23" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="N23" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="15">
+      <c r="O23" s="16"/>
+      <c r="P23" s="15">
         <v>19600514</v>
       </c>
-      <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
@@ -5773,38 +5772,38 @@
       <c r="AL23" s="16"/>
       <c r="AM23" s="16"/>
       <c r="AN23" s="16"/>
-      <c r="AO23" s="15">
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="15">
         <v>20170312</v>
       </c>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="17" t="s">
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
-      <c r="AW23" s="17" t="s">
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX23" s="16"/>
-      <c r="AY23" s="25">
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="25">
         <v>101001019000</v>
       </c>
-      <c r="AZ23" s="16"/>
       <c r="BA23" s="16"/>
       <c r="BB23" s="16"/>
-      <c r="BC23" s="17" t="s">
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD23" s="17" t="s">
+      <c r="BE23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BE23" s="17" t="s">
+      <c r="BF23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="BF23" s="16"/>
       <c r="BG23" s="16"/>
       <c r="BH23" s="16"/>
       <c r="BI23" s="16"/>
@@ -5827,75 +5826,75 @@
       <c r="BZ23" s="16"/>
       <c r="CA23" s="16"/>
       <c r="CB23" s="16"/>
-      <c r="CC23" s="17" t="s">
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD23" s="17" t="s">
+      <c r="CE23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="CE23" s="17" t="s">
+      <c r="CF23" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="CF23" s="16"/>
       <c r="CG23" s="16"/>
       <c r="CH23" s="16"/>
-      <c r="CI23" s="17" t="s">
+      <c r="CI23" s="16"/>
+      <c r="CJ23" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ23" s="15">
+      <c r="CK23" s="15">
         <v>6</v>
       </c>
-      <c r="CK23" s="17" t="s">
+      <c r="CL23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL23" s="16"/>
       <c r="CM23" s="16"/>
       <c r="CN23" s="16"/>
       <c r="CO23" s="16"/>
       <c r="CP23" s="16"/>
       <c r="CQ23" s="16"/>
       <c r="CR23" s="16"/>
-      <c r="CS23" s="15">
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="15">
         <v>3</v>
       </c>
-      <c r="CT23" s="17" t="s">
+      <c r="CU23" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="CU23" s="17" t="s">
+      <c r="CV23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="CV23" s="17" t="s">
+      <c r="CW23" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="CW23" s="17" t="s">
+      <c r="CX23" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="CX23" s="27">
-        <v>2.7</v>
       </c>
       <c r="CY23" s="27">
         <v>2.7</v>
       </c>
-      <c r="CZ23" s="15">
+      <c r="CZ23" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="DA23" s="15">
         <v>2</v>
       </c>
-      <c r="DA23" s="17" t="s">
+      <c r="DB23" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB23" s="17" t="s">
+      <c r="DC23" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="DC23" s="17" t="s">
+      <c r="DD23" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15">
+    <row r="24" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15">
         <v>90675321</v>
       </c>
-      <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -5903,17 +5902,17 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="16"/>
+      <c r="M24" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="N24" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="15">
+      <c r="O24" s="16"/>
+      <c r="P24" s="15">
         <v>19600514</v>
       </c>
-      <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -5938,35 +5937,35 @@
       <c r="AL24" s="16"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
-      <c r="AO24" s="15">
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="15">
         <v>20170312</v>
       </c>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="17" t="s">
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR24" s="16"/>
       <c r="AS24" s="16"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
       <c r="AV24" s="16"/>
-      <c r="AW24" s="17" t="s">
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="25">
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="25">
         <v>101001019000</v>
       </c>
-      <c r="AZ24" s="16"/>
       <c r="BA24" s="16"/>
       <c r="BB24" s="16"/>
-      <c r="BC24" s="17" t="s">
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD24" s="17" t="s">
+      <c r="BE24" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BE24" s="16"/>
       <c r="BF24" s="16"/>
       <c r="BG24" s="16"/>
       <c r="BH24" s="16"/>
@@ -5990,20 +5989,20 @@
       <c r="BZ24" s="16"/>
       <c r="CA24" s="16"/>
       <c r="CB24" s="16"/>
-      <c r="CC24" s="17" t="s">
+      <c r="CC24" s="16"/>
+      <c r="CD24" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD24" s="16"/>
-      <c r="CE24" s="17" t="s">
+      <c r="CE24" s="16"/>
+      <c r="CF24" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="CF24" s="16"/>
       <c r="CG24" s="16"/>
       <c r="CH24" s="16"/>
-      <c r="CI24" s="17" t="s">
+      <c r="CI24" s="16"/>
+      <c r="CJ24" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="CJ24" s="16"/>
       <c r="CK24" s="16"/>
       <c r="CL24" s="16"/>
       <c r="CM24" s="16"/>
@@ -6017,20 +6016,20 @@
       <c r="CU24" s="16"/>
       <c r="CV24" s="16"/>
       <c r="CW24" s="16"/>
-      <c r="CX24" s="27"/>
+      <c r="CX24" s="16"/>
       <c r="CY24" s="27"/>
-      <c r="CZ24" s="16"/>
+      <c r="CZ24" s="27"/>
       <c r="DA24" s="16"/>
       <c r="DB24" s="16"/>
       <c r="DC24" s="16"/>
+      <c r="DD24" s="16"/>
     </row>
-    <row r="25" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10">
+    <row r="25" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10">
         <v>84734892</v>
       </c>
-      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -6038,17 +6037,17 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="11"/>
+      <c r="M25" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="N25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="10">
+      <c r="O25" s="11"/>
+      <c r="P25" s="10">
         <v>19721127</v>
       </c>
-      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -6073,38 +6072,38 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="10">
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="10">
         <v>19980508</v>
       </c>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="12" t="s">
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
-      <c r="AW25" s="12" t="s">
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="24">
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="24">
         <v>101001044000</v>
       </c>
-      <c r="AZ25" s="11"/>
       <c r="BA25" s="11"/>
       <c r="BB25" s="11"/>
-      <c r="BC25" s="12" t="s">
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="BD25" s="12" t="s">
+      <c r="BE25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE25" s="12" t="s">
+      <c r="BF25" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF25" s="11"/>
       <c r="BG25" s="11"/>
       <c r="BH25" s="11"/>
       <c r="BI25" s="11"/>
@@ -6127,28 +6126,28 @@
       <c r="BZ25" s="11"/>
       <c r="CA25" s="11"/>
       <c r="CB25" s="11"/>
-      <c r="CC25" s="12" t="s">
+      <c r="CC25" s="11"/>
+      <c r="CD25" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="CD25" s="12" t="s">
+      <c r="CE25" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="CE25" s="12" t="s">
+      <c r="CF25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF25" s="11"/>
       <c r="CG25" s="11"/>
       <c r="CH25" s="11"/>
-      <c r="CI25" s="12" t="s">
+      <c r="CI25" s="11"/>
+      <c r="CJ25" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="CJ25" s="10">
+      <c r="CK25" s="10">
         <v>6</v>
       </c>
-      <c r="CK25" s="12" t="s">
+      <c r="CL25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
@@ -6160,20 +6159,20 @@
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
-      <c r="CX25" s="29"/>
+      <c r="CX25" s="11"/>
       <c r="CY25" s="29"/>
-      <c r="CZ25" s="11"/>
+      <c r="CZ25" s="29"/>
       <c r="DA25" s="11"/>
       <c r="DB25" s="11"/>
       <c r="DC25" s="11"/>
+      <c r="DD25" s="11"/>
     </row>
-    <row r="26" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10">
+    <row r="26" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10">
         <v>84734892</v>
       </c>
-      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -6181,17 +6180,17 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="11"/>
+      <c r="M26" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="N26" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="10">
+      <c r="O26" s="11"/>
+      <c r="P26" s="10">
         <v>19721127</v>
       </c>
-      <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -6216,38 +6215,38 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="10">
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="10">
         <v>19980504</v>
       </c>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="12" t="s">
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR26" s="11"/>
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
       <c r="AV26" s="11"/>
-      <c r="AW26" s="12" t="s">
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="24">
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="24">
         <v>101001020000</v>
       </c>
-      <c r="AZ26" s="11"/>
       <c r="BA26" s="11"/>
       <c r="BB26" s="11"/>
-      <c r="BC26" s="12" t="s">
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="BD26" s="12" t="s">
+      <c r="BE26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE26" s="12" t="s">
+      <c r="BF26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="BF26" s="11"/>
       <c r="BG26" s="11"/>
       <c r="BH26" s="11"/>
       <c r="BI26" s="11"/>
@@ -6270,75 +6269,75 @@
       <c r="BZ26" s="11"/>
       <c r="CA26" s="11"/>
       <c r="CB26" s="11"/>
-      <c r="CC26" s="12" t="s">
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="CD26" s="12" t="s">
+      <c r="CE26" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="CE26" s="12" t="s">
+      <c r="CF26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF26" s="11"/>
       <c r="CG26" s="11"/>
       <c r="CH26" s="11"/>
-      <c r="CI26" s="12" t="s">
+      <c r="CI26" s="11"/>
+      <c r="CJ26" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="CJ26" s="10">
+      <c r="CK26" s="10">
         <v>6</v>
       </c>
-      <c r="CK26" s="12" t="s">
+      <c r="CL26" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL26" s="11"/>
       <c r="CM26" s="11"/>
       <c r="CN26" s="11"/>
       <c r="CO26" s="11"/>
       <c r="CP26" s="11"/>
       <c r="CQ26" s="11"/>
       <c r="CR26" s="11"/>
-      <c r="CS26" s="10">
+      <c r="CS26" s="11"/>
+      <c r="CT26" s="10">
         <v>6</v>
       </c>
-      <c r="CT26" s="12" t="s">
+      <c r="CU26" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="CU26" s="12" t="s">
+      <c r="CV26" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CV26" s="12" t="s">
+      <c r="CW26" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="CW26" s="12" t="s">
+      <c r="CX26" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="CX26" s="29">
+      <c r="CY26" s="29">
         <v>21.5</v>
       </c>
-      <c r="CY26" s="29">
+      <c r="CZ26" s="29">
         <v>4</v>
       </c>
-      <c r="CZ26" s="10">
+      <c r="DA26" s="10">
         <v>3</v>
       </c>
-      <c r="DA26" s="12" t="s">
+      <c r="DB26" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB26" s="12" t="s">
+      <c r="DC26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="DC26" s="12" t="s">
+      <c r="DD26" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10">
+    <row r="27" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10">
         <v>84734892</v>
       </c>
-      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -6346,17 +6345,17 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="N27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="10">
+      <c r="O27" s="11"/>
+      <c r="P27" s="10">
         <v>19721127</v>
       </c>
-      <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -6381,38 +6380,38 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
-      <c r="AO27" s="10">
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="10">
         <v>19980504</v>
       </c>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="12" t="s">
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR27" s="11"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="11"/>
       <c r="AU27" s="11"/>
       <c r="AV27" s="11"/>
-      <c r="AW27" s="12" t="s">
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="24">
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="24">
         <v>101001021000</v>
       </c>
-      <c r="AZ27" s="11"/>
       <c r="BA27" s="11"/>
       <c r="BB27" s="11"/>
-      <c r="BC27" s="12" t="s">
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="BD27" s="12" t="s">
+      <c r="BE27" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE27" s="12" t="s">
+      <c r="BF27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BF27" s="11"/>
       <c r="BG27" s="11"/>
       <c r="BH27" s="11"/>
       <c r="BI27" s="11"/>
@@ -6435,28 +6434,28 @@
       <c r="BZ27" s="11"/>
       <c r="CA27" s="11"/>
       <c r="CB27" s="11"/>
-      <c r="CC27" s="12" t="s">
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="CD27" s="12" t="s">
+      <c r="CE27" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="CE27" s="12" t="s">
+      <c r="CF27" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF27" s="11"/>
       <c r="CG27" s="11"/>
       <c r="CH27" s="11"/>
-      <c r="CI27" s="12" t="s">
+      <c r="CI27" s="11"/>
+      <c r="CJ27" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="CJ27" s="10">
+      <c r="CK27" s="10">
         <v>6</v>
       </c>
-      <c r="CK27" s="12" t="s">
+      <c r="CL27" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL27" s="11"/>
       <c r="CM27" s="11"/>
       <c r="CN27" s="11"/>
       <c r="CO27" s="11"/>
@@ -6468,20 +6467,20 @@
       <c r="CU27" s="11"/>
       <c r="CV27" s="11"/>
       <c r="CW27" s="11"/>
-      <c r="CX27" s="29"/>
+      <c r="CX27" s="11"/>
       <c r="CY27" s="29"/>
-      <c r="CZ27" s="11"/>
+      <c r="CZ27" s="29"/>
       <c r="DA27" s="11"/>
       <c r="DB27" s="11"/>
       <c r="DC27" s="11"/>
+      <c r="DD27" s="11"/>
     </row>
-    <row r="28" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10">
+    <row r="28" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10">
         <v>84734892</v>
       </c>
-      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -6489,17 +6488,17 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="N28" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="10">
+      <c r="O28" s="11"/>
+      <c r="P28" s="10">
         <v>19721127</v>
       </c>
-      <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -6524,35 +6523,35 @@
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
-      <c r="AO28" s="10">
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="10">
         <v>20150214</v>
       </c>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="12" t="s">
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
       <c r="AT28" s="11"/>
       <c r="AU28" s="11"/>
       <c r="AV28" s="11"/>
-      <c r="AW28" s="12" t="s">
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="24">
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="24">
         <v>101001022000</v>
       </c>
-      <c r="AZ28" s="11"/>
       <c r="BA28" s="11"/>
       <c r="BB28" s="11"/>
-      <c r="BC28" s="12" t="s">
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="BD28" s="12" t="s">
+      <c r="BE28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BE28" s="11"/>
       <c r="BF28" s="11"/>
       <c r="BG28" s="11"/>
       <c r="BH28" s="11"/>
@@ -6576,26 +6575,26 @@
       <c r="BZ28" s="11"/>
       <c r="CA28" s="11"/>
       <c r="CB28" s="11"/>
-      <c r="CC28" s="12" t="s">
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD28" s="11"/>
-      <c r="CE28" s="12" t="s">
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="CF28" s="11"/>
       <c r="CG28" s="11"/>
       <c r="CH28" s="11"/>
-      <c r="CI28" s="12" t="s">
+      <c r="CI28" s="11"/>
+      <c r="CJ28" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ28" s="10">
+      <c r="CK28" s="10">
         <v>2</v>
       </c>
-      <c r="CK28" s="12" t="s">
+      <c r="CL28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL28" s="11"/>
       <c r="CM28" s="11"/>
       <c r="CN28" s="11"/>
       <c r="CO28" s="11"/>
@@ -6607,20 +6606,20 @@
       <c r="CU28" s="11"/>
       <c r="CV28" s="11"/>
       <c r="CW28" s="11"/>
-      <c r="CX28" s="29"/>
+      <c r="CX28" s="11"/>
       <c r="CY28" s="29"/>
-      <c r="CZ28" s="11"/>
+      <c r="CZ28" s="29"/>
       <c r="DA28" s="11"/>
       <c r="DB28" s="11"/>
       <c r="DC28" s="11"/>
+      <c r="DD28" s="11"/>
     </row>
-    <row r="29" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10">
+    <row r="29" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10">
         <v>84734892</v>
       </c>
-      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -6628,17 +6627,17 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="10">
+      <c r="O29" s="11"/>
+      <c r="P29" s="10">
         <v>19721127</v>
       </c>
-      <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
@@ -6663,35 +6662,35 @@
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
-      <c r="AO29" s="10">
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="10">
         <v>20150519</v>
       </c>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="12" t="s">
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
       <c r="AU29" s="11"/>
       <c r="AV29" s="11"/>
-      <c r="AW29" s="12" t="s">
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="24">
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="24">
         <v>101001023000</v>
       </c>
-      <c r="AZ29" s="11"/>
       <c r="BA29" s="11"/>
       <c r="BB29" s="11"/>
-      <c r="BC29" s="12" t="s">
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BD29" s="12" t="s">
+      <c r="BE29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BE29" s="11"/>
       <c r="BF29" s="11"/>
       <c r="BG29" s="11"/>
       <c r="BH29" s="11"/>
@@ -6715,73 +6714,73 @@
       <c r="BZ29" s="11"/>
       <c r="CA29" s="11"/>
       <c r="CB29" s="11"/>
-      <c r="CC29" s="12" t="s">
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD29" s="11"/>
-      <c r="CE29" s="12" t="s">
+      <c r="CE29" s="11"/>
+      <c r="CF29" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="CF29" s="11"/>
       <c r="CG29" s="11"/>
       <c r="CH29" s="11"/>
-      <c r="CI29" s="12" t="s">
+      <c r="CI29" s="11"/>
+      <c r="CJ29" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ29" s="10">
+      <c r="CK29" s="10">
         <v>2</v>
       </c>
-      <c r="CK29" s="12" t="s">
+      <c r="CL29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL29" s="11"/>
       <c r="CM29" s="11"/>
       <c r="CN29" s="11"/>
       <c r="CO29" s="11"/>
       <c r="CP29" s="11"/>
       <c r="CQ29" s="11"/>
       <c r="CR29" s="11"/>
-      <c r="CS29" s="10">
+      <c r="CS29" s="11"/>
+      <c r="CT29" s="10">
         <v>6</v>
       </c>
-      <c r="CT29" s="12" t="s">
+      <c r="CU29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="CU29" s="12" t="s">
+      <c r="CV29" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CV29" s="12" t="s">
+      <c r="CW29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="CW29" s="12" t="s">
+      <c r="CX29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="CX29" s="29">
+      <c r="CY29" s="29">
         <v>4.5</v>
       </c>
-      <c r="CY29" s="29">
+      <c r="CZ29" s="29">
         <v>4</v>
       </c>
-      <c r="CZ29" s="10">
+      <c r="DA29" s="10">
         <v>3</v>
       </c>
-      <c r="DA29" s="12" t="s">
+      <c r="DB29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB29" s="12" t="s">
+      <c r="DC29" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="DC29" s="12" t="s">
+      <c r="DD29" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10">
+    <row r="30" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10">
         <v>84734892</v>
       </c>
-      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -6789,17 +6788,17 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="N30" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="10">
+      <c r="O30" s="11"/>
+      <c r="P30" s="10">
         <v>19721127</v>
       </c>
-      <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -6824,35 +6823,35 @@
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
-      <c r="AO30" s="10">
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="10">
         <v>20151031</v>
       </c>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="12" t="s">
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
       <c r="AT30" s="11"/>
       <c r="AU30" s="11"/>
       <c r="AV30" s="11"/>
-      <c r="AW30" s="12" t="s">
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="24">
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="24">
         <v>101001024000</v>
       </c>
-      <c r="AZ30" s="11"/>
       <c r="BA30" s="11"/>
       <c r="BB30" s="11"/>
-      <c r="BC30" s="12" t="s">
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="BD30" s="12" t="s">
+      <c r="BE30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BE30" s="11"/>
       <c r="BF30" s="11"/>
       <c r="BG30" s="11"/>
       <c r="BH30" s="11"/>
@@ -6876,73 +6875,73 @@
       <c r="BZ30" s="11"/>
       <c r="CA30" s="11"/>
       <c r="CB30" s="11"/>
-      <c r="CC30" s="12" t="s">
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CD30" s="11"/>
-      <c r="CE30" s="12" t="s">
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CF30" s="11"/>
       <c r="CG30" s="11"/>
       <c r="CH30" s="11"/>
-      <c r="CI30" s="12" t="s">
+      <c r="CI30" s="11"/>
+      <c r="CJ30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CJ30" s="10">
+      <c r="CK30" s="10">
         <v>2</v>
       </c>
-      <c r="CK30" s="12" t="s">
+      <c r="CL30" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="CL30" s="11"/>
       <c r="CM30" s="11"/>
       <c r="CN30" s="11"/>
       <c r="CO30" s="11"/>
       <c r="CP30" s="11"/>
       <c r="CQ30" s="11"/>
       <c r="CR30" s="11"/>
-      <c r="CS30" s="10">
+      <c r="CS30" s="11"/>
+      <c r="CT30" s="10">
         <v>6</v>
       </c>
-      <c r="CT30" s="12" t="s">
+      <c r="CU30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="CU30" s="12" t="s">
+      <c r="CV30" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CV30" s="12" t="s">
+      <c r="CW30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="CW30" s="12" t="s">
+      <c r="CX30" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="CX30" s="29">
-        <v>4</v>
       </c>
       <c r="CY30" s="29">
         <v>4</v>
       </c>
-      <c r="CZ30" s="10">
+      <c r="CZ30" s="29">
+        <v>4</v>
+      </c>
+      <c r="DA30" s="10">
         <v>3</v>
       </c>
-      <c r="DA30" s="12" t="s">
+      <c r="DB30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DB30" s="12" t="s">
+      <c r="DC30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="DC30" s="12" t="s">
+      <c r="DD30" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15">
+    <row r="31" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15">
         <v>14575654</v>
       </c>
-      <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -6950,17 +6949,17 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="15">
+      <c r="L31" s="16"/>
+      <c r="M31" s="15">
         <v>1008675309</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="N31" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="15">
+      <c r="O31" s="16"/>
+      <c r="P31" s="15">
         <v>19690314</v>
       </c>
-      <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
@@ -6985,38 +6984,38 @@
       <c r="AL31" s="16"/>
       <c r="AM31" s="16"/>
       <c r="AN31" s="16"/>
-      <c r="AO31" s="15">
+      <c r="AO31" s="16"/>
+      <c r="AP31" s="15">
         <v>19910411</v>
       </c>
-      <c r="AP31" s="16"/>
-      <c r="AQ31" s="17" t="s">
+      <c r="AQ31" s="16"/>
+      <c r="AR31" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="16"/>
       <c r="AU31" s="16"/>
       <c r="AV31" s="16"/>
-      <c r="AW31" s="17" t="s">
+      <c r="AW31" s="16"/>
+      <c r="AX31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX31" s="16"/>
-      <c r="AY31" s="25">
+      <c r="AY31" s="16"/>
+      <c r="AZ31" s="25">
         <v>101001025000</v>
       </c>
-      <c r="AZ31" s="16"/>
       <c r="BA31" s="16"/>
       <c r="BB31" s="16"/>
-      <c r="BC31" s="17" t="s">
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="BD31" s="17" t="s">
+      <c r="BE31" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE31" s="17" t="s">
+      <c r="BF31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="BF31" s="16"/>
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="16"/>
@@ -7039,39 +7038,37 @@
       <c r="BZ31" s="16"/>
       <c r="CA31" s="16"/>
       <c r="CB31" s="16"/>
-      <c r="CC31" s="17" t="s">
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD31" s="17" t="s">
+      <c r="CE31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE31" s="17" t="s">
+      <c r="CF31" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF31" s="16"/>
       <c r="CG31" s="16"/>
       <c r="CH31" s="16"/>
-      <c r="CI31" s="17" t="s">
+      <c r="CI31" s="16"/>
+      <c r="CJ31" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CJ31" s="15">
+      <c r="CK31" s="15">
         <v>6</v>
       </c>
-      <c r="CK31" s="17" t="s">
+      <c r="CL31" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL31" s="16"/>
       <c r="CM31" s="16"/>
       <c r="CN31" s="16"/>
       <c r="CO31" s="16"/>
       <c r="CP31" s="16"/>
       <c r="CQ31" s="16"/>
       <c r="CR31" s="16"/>
-      <c r="CS31" s="15">
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="15">
         <v>3</v>
-      </c>
-      <c r="CT31" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU31" s="17" t="s">
         <v>126</v>
@@ -7080,34 +7077,36 @@
         <v>126</v>
       </c>
       <c r="CW31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX31" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="CX31" s="27">
+      <c r="CY31" s="27">
         <v>28.6</v>
       </c>
-      <c r="CY31" s="27">
+      <c r="CZ31" s="27">
         <v>5.4</v>
       </c>
-      <c r="CZ31" s="15">
+      <c r="DA31" s="15">
         <v>3</v>
       </c>
-      <c r="DA31" s="17" t="s">
+      <c r="DB31" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB31" s="17" t="s">
+      <c r="DC31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC31" s="17" t="s">
+      <c r="DD31" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15">
+    <row r="32" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15">
         <v>14575654</v>
       </c>
-      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -7115,17 +7114,17 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="15">
+      <c r="L32" s="16"/>
+      <c r="M32" s="15">
         <v>1008675309</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="15">
+      <c r="O32" s="16"/>
+      <c r="P32" s="15">
         <v>19690314</v>
       </c>
-      <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
@@ -7150,38 +7149,38 @@
       <c r="AL32" s="16"/>
       <c r="AM32" s="16"/>
       <c r="AN32" s="16"/>
-      <c r="AO32" s="15">
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="15">
         <v>19910411</v>
       </c>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="17" t="s">
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR32" s="16"/>
       <c r="AS32" s="16"/>
       <c r="AT32" s="16"/>
       <c r="AU32" s="16"/>
       <c r="AV32" s="16"/>
-      <c r="AW32" s="17" t="s">
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="AX32" s="16"/>
-      <c r="AY32" s="25">
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="25">
         <v>101001026000</v>
       </c>
-      <c r="AZ32" s="16"/>
       <c r="BA32" s="16"/>
       <c r="BB32" s="16"/>
-      <c r="BC32" s="17" t="s">
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="BD32" s="17" t="s">
+      <c r="BE32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE32" s="17" t="s">
+      <c r="BF32" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="BF32" s="16"/>
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="16"/>
@@ -7204,28 +7203,28 @@
       <c r="BZ32" s="16"/>
       <c r="CA32" s="16"/>
       <c r="CB32" s="16"/>
-      <c r="CC32" s="17" t="s">
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD32" s="17" t="s">
+      <c r="CE32" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE32" s="17" t="s">
+      <c r="CF32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF32" s="16"/>
       <c r="CG32" s="16"/>
       <c r="CH32" s="16"/>
-      <c r="CI32" s="17" t="s">
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CJ32" s="15">
+      <c r="CK32" s="15">
         <v>6</v>
       </c>
-      <c r="CK32" s="17" t="s">
+      <c r="CL32" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL32" s="16"/>
       <c r="CM32" s="16"/>
       <c r="CN32" s="16"/>
       <c r="CO32" s="16"/>
@@ -7237,20 +7236,20 @@
       <c r="CU32" s="16"/>
       <c r="CV32" s="16"/>
       <c r="CW32" s="16"/>
-      <c r="CX32" s="27"/>
+      <c r="CX32" s="16"/>
       <c r="CY32" s="27"/>
-      <c r="CZ32" s="16"/>
+      <c r="CZ32" s="27"/>
       <c r="DA32" s="16"/>
       <c r="DB32" s="16"/>
       <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
     </row>
-    <row r="33" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15">
+    <row r="33" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15">
         <v>14575654</v>
       </c>
-      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -7258,17 +7257,17 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="15">
+      <c r="L33" s="16"/>
+      <c r="M33" s="15">
         <v>1008675309</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="N33" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="15">
+      <c r="O33" s="16"/>
+      <c r="P33" s="15">
         <v>19690314</v>
       </c>
-      <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
@@ -7293,38 +7292,38 @@
       <c r="AL33" s="16"/>
       <c r="AM33" s="16"/>
       <c r="AN33" s="16"/>
-      <c r="AO33" s="15">
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="15">
         <v>20140612</v>
       </c>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="17" t="s">
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR33" s="16"/>
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
       <c r="AU33" s="16"/>
       <c r="AV33" s="16"/>
-      <c r="AW33" s="17" t="s">
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="25">
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="25">
         <v>101001027000</v>
       </c>
-      <c r="AZ33" s="16"/>
       <c r="BA33" s="16"/>
       <c r="BB33" s="16"/>
-      <c r="BC33" s="17" t="s">
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="BD33" s="17" t="s">
+      <c r="BE33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BE33" s="17" t="s">
+      <c r="BF33" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="BF33" s="16"/>
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="16"/>
@@ -7347,39 +7346,37 @@
       <c r="BZ33" s="16"/>
       <c r="CA33" s="16"/>
       <c r="CB33" s="16"/>
-      <c r="CC33" s="17" t="s">
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD33" s="17" t="s">
+      <c r="CE33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE33" s="17" t="s">
+      <c r="CF33" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="CF33" s="16"/>
       <c r="CG33" s="16"/>
       <c r="CH33" s="16"/>
-      <c r="CI33" s="17" t="s">
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CJ33" s="15">
+      <c r="CK33" s="15">
         <v>6</v>
       </c>
-      <c r="CK33" s="17" t="s">
+      <c r="CL33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL33" s="16"/>
       <c r="CM33" s="16"/>
       <c r="CN33" s="16"/>
       <c r="CO33" s="16"/>
       <c r="CP33" s="16"/>
       <c r="CQ33" s="16"/>
       <c r="CR33" s="16"/>
-      <c r="CS33" s="15">
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="15">
         <v>3</v>
-      </c>
-      <c r="CT33" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU33" s="17" t="s">
         <v>126</v>
@@ -7388,34 +7385,36 @@
         <v>126</v>
       </c>
       <c r="CW33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX33" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="CX33" s="27">
-        <v>5.4</v>
       </c>
       <c r="CY33" s="27">
         <v>5.4</v>
       </c>
-      <c r="CZ33" s="15">
+      <c r="CZ33" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="DA33" s="15">
         <v>3</v>
       </c>
-      <c r="DA33" s="17" t="s">
+      <c r="DB33" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB33" s="17" t="s">
+      <c r="DC33" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC33" s="17" t="s">
+      <c r="DD33" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
+    <row r="34" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15">
         <v>95875321</v>
       </c>
-      <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -7423,17 +7422,17 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="N34" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="15">
+      <c r="O34" s="16"/>
+      <c r="P34" s="15">
         <v>19690514</v>
       </c>
-      <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
@@ -7458,38 +7457,38 @@
       <c r="AL34" s="16"/>
       <c r="AM34" s="16"/>
       <c r="AN34" s="16"/>
-      <c r="AO34" s="15">
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="15">
         <v>19910411</v>
       </c>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="17" t="s">
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR34" s="16"/>
       <c r="AS34" s="16"/>
       <c r="AT34" s="16"/>
       <c r="AU34" s="16"/>
       <c r="AV34" s="16"/>
-      <c r="AW34" s="17" t="s">
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="25">
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="25">
         <v>101001028000</v>
       </c>
-      <c r="AZ34" s="16"/>
       <c r="BA34" s="16"/>
       <c r="BB34" s="16"/>
-      <c r="BC34" s="17" t="s">
+      <c r="BC34" s="16"/>
+      <c r="BD34" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD34" s="17" t="s">
+      <c r="BE34" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE34" s="17" t="s">
+      <c r="BF34" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="BF34" s="16"/>
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="16"/>
@@ -7512,75 +7511,75 @@
       <c r="BZ34" s="16"/>
       <c r="CA34" s="16"/>
       <c r="CB34" s="16"/>
-      <c r="CC34" s="17" t="s">
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD34" s="17" t="s">
+      <c r="CE34" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE34" s="17" t="s">
+      <c r="CF34" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF34" s="16"/>
       <c r="CG34" s="16"/>
       <c r="CH34" s="16"/>
-      <c r="CI34" s="17" t="s">
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ34" s="15">
+      <c r="CK34" s="15">
         <v>6</v>
       </c>
-      <c r="CK34" s="17" t="s">
+      <c r="CL34" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL34" s="16"/>
       <c r="CM34" s="16"/>
       <c r="CN34" s="16"/>
       <c r="CO34" s="16"/>
       <c r="CP34" s="16"/>
       <c r="CQ34" s="16"/>
       <c r="CR34" s="16"/>
-      <c r="CS34" s="15">
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="15">
         <v>2</v>
       </c>
-      <c r="CT34" s="17" t="s">
+      <c r="CU34" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="CU34" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CV34" s="17" t="s">
         <v>126</v>
       </c>
       <c r="CW34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX34" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="CX34" s="27">
-        <v>28.6</v>
       </c>
       <c r="CY34" s="27">
         <v>28.6</v>
       </c>
-      <c r="CZ34" s="15">
+      <c r="CZ34" s="27">
+        <v>28.6</v>
+      </c>
+      <c r="DA34" s="15">
         <v>1</v>
       </c>
-      <c r="DA34" s="17" t="s">
+      <c r="DB34" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB34" s="17" t="s">
+      <c r="DC34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC34" s="17" t="s">
+      <c r="DD34" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15">
+    <row r="35" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15">
         <v>95875321</v>
       </c>
-      <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -7588,17 +7587,17 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="N35" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="16"/>
-      <c r="O35" s="15">
+      <c r="O35" s="16"/>
+      <c r="P35" s="15">
         <v>19690514</v>
       </c>
-      <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
@@ -7623,38 +7622,38 @@
       <c r="AL35" s="16"/>
       <c r="AM35" s="16"/>
       <c r="AN35" s="16"/>
-      <c r="AO35" s="15">
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="15">
         <v>19910411</v>
       </c>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="17" t="s">
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR35" s="16"/>
       <c r="AS35" s="16"/>
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
-      <c r="AW35" s="17" t="s">
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX35" s="16"/>
-      <c r="AY35" s="25">
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="25">
         <v>101001029000</v>
       </c>
-      <c r="AZ35" s="16"/>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16"/>
-      <c r="BC35" s="17" t="s">
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="BD35" s="17" t="s">
+      <c r="BE35" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE35" s="17" t="s">
+      <c r="BF35" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="BF35" s="16"/>
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="16"/>
@@ -7677,28 +7676,28 @@
       <c r="BZ35" s="16"/>
       <c r="CA35" s="16"/>
       <c r="CB35" s="16"/>
-      <c r="CC35" s="17" t="s">
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD35" s="17" t="s">
+      <c r="CE35" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="CE35" s="17" t="s">
+      <c r="CF35" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF35" s="16"/>
       <c r="CG35" s="16"/>
       <c r="CH35" s="16"/>
-      <c r="CI35" s="17" t="s">
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ35" s="15">
+      <c r="CK35" s="15">
         <v>6</v>
       </c>
-      <c r="CK35" s="17" t="s">
+      <c r="CL35" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="CL35" s="16"/>
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
@@ -7716,14 +7715,14 @@
       <c r="DA35" s="16"/>
       <c r="DB35" s="16"/>
       <c r="DC35" s="16"/>
+      <c r="DD35" s="16"/>
     </row>
-    <row r="36" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20">
+    <row r="36" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20">
         <v>34499400</v>
       </c>
-      <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -7731,17 +7730,17 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="N36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="20">
+      <c r="O36" s="21"/>
+      <c r="P36" s="20">
         <v>20060814</v>
       </c>
-      <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -7766,35 +7765,35 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="21"/>
-      <c r="AO36" s="20">
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="20">
         <v>20080410</v>
       </c>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="22" t="s">
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
       <c r="AT36" s="21"/>
       <c r="AU36" s="21"/>
       <c r="AV36" s="21"/>
-      <c r="AW36" s="22" t="s">
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="26">
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="26">
         <v>101001030000</v>
       </c>
-      <c r="AZ36" s="21"/>
       <c r="BA36" s="21"/>
       <c r="BB36" s="21"/>
-      <c r="BC36" s="22" t="s">
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="BD36" s="22" t="s">
+      <c r="BE36" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BE36" s="21"/>
       <c r="BF36" s="21"/>
       <c r="BG36" s="21"/>
       <c r="BH36" s="21"/>
@@ -7818,37 +7817,35 @@
       <c r="BZ36" s="21"/>
       <c r="CA36" s="21"/>
       <c r="CB36" s="21"/>
-      <c r="CC36" s="22" t="s">
+      <c r="CC36" s="21"/>
+      <c r="CD36" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="CD36" s="21"/>
-      <c r="CE36" s="22" t="s">
+      <c r="CE36" s="21"/>
+      <c r="CF36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="CF36" s="21"/>
       <c r="CG36" s="21"/>
       <c r="CH36" s="21"/>
-      <c r="CI36" s="22" t="s">
+      <c r="CI36" s="21"/>
+      <c r="CJ36" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="CJ36" s="20">
+      <c r="CK36" s="20">
         <v>10</v>
       </c>
-      <c r="CK36" s="22" t="s">
+      <c r="CL36" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="CL36" s="21"/>
       <c r="CM36" s="21"/>
       <c r="CN36" s="21"/>
       <c r="CO36" s="21"/>
       <c r="CP36" s="21"/>
       <c r="CQ36" s="21"/>
       <c r="CR36" s="21"/>
-      <c r="CS36" s="20">
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="20">
         <v>1</v>
-      </c>
-      <c r="CT36" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="CU36" s="22" t="s">
         <v>126</v>
@@ -7857,34 +7854,36 @@
         <v>126</v>
       </c>
       <c r="CW36" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX36" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="CX36" s="20">
-        <v>11.6</v>
       </c>
       <c r="CY36" s="20">
         <v>11.6</v>
       </c>
       <c r="CZ36" s="20">
+        <v>11.6</v>
+      </c>
+      <c r="DA36" s="20">
         <v>1</v>
       </c>
-      <c r="DA36" s="22" t="s">
+      <c r="DB36" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="DB36" s="22" t="s">
+      <c r="DC36" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="DC36" s="22" t="s">
+      <c r="DD36" s="22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15">
+    <row r="37" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15">
         <v>43322421</v>
       </c>
-      <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -7892,17 +7891,17 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="16"/>
+      <c r="M37" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="N37" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="15">
+      <c r="O37" s="16"/>
+      <c r="P37" s="15">
         <v>19831119</v>
       </c>
-      <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -7927,35 +7926,35 @@
       <c r="AL37" s="16"/>
       <c r="AM37" s="16"/>
       <c r="AN37" s="16"/>
-      <c r="AO37" s="15">
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="15">
         <v>20150214</v>
       </c>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="17" t="s">
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR37" s="16"/>
       <c r="AS37" s="16"/>
       <c r="AT37" s="16"/>
       <c r="AU37" s="16"/>
       <c r="AV37" s="16"/>
-      <c r="AW37" s="17" t="s">
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="25">
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="25">
         <v>101001031000</v>
       </c>
-      <c r="AZ37" s="16"/>
       <c r="BA37" s="16"/>
       <c r="BB37" s="16"/>
-      <c r="BC37" s="17" t="s">
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD37" s="17" t="s">
+      <c r="BE37" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE37" s="16"/>
       <c r="BF37" s="16"/>
       <c r="BG37" s="16"/>
       <c r="BH37" s="16"/>
@@ -7979,37 +7978,35 @@
       <c r="BZ37" s="16"/>
       <c r="CA37" s="16"/>
       <c r="CB37" s="16"/>
-      <c r="CC37" s="17" t="s">
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD37" s="16"/>
-      <c r="CE37" s="17" t="s">
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF37" s="16"/>
       <c r="CG37" s="16"/>
       <c r="CH37" s="16"/>
-      <c r="CI37" s="17" t="s">
+      <c r="CI37" s="16"/>
+      <c r="CJ37" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ37" s="15">
+      <c r="CK37" s="15">
         <v>5</v>
       </c>
-      <c r="CK37" s="17" t="s">
+      <c r="CL37" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="CL37" s="16"/>
       <c r="CM37" s="16"/>
       <c r="CN37" s="16"/>
       <c r="CO37" s="16"/>
       <c r="CP37" s="16"/>
       <c r="CQ37" s="16"/>
       <c r="CR37" s="16"/>
-      <c r="CS37" s="15">
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="15">
         <v>1</v>
-      </c>
-      <c r="CT37" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU37" s="17" t="s">
         <v>126</v>
@@ -8018,34 +8015,36 @@
         <v>126</v>
       </c>
       <c r="CW37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX37" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="CX37" s="15">
-        <v>4.7</v>
       </c>
       <c r="CY37" s="15">
         <v>4.7</v>
       </c>
       <c r="CZ37" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="DA37" s="15">
         <v>1</v>
       </c>
-      <c r="DA37" s="17" t="s">
+      <c r="DB37" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB37" s="17" t="s">
+      <c r="DC37" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="DC37" s="17" t="s">
+      <c r="DD37" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20">
+    <row r="38" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20">
         <v>66678381</v>
       </c>
-      <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -8053,17 +8052,17 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="21"/>
+      <c r="M38" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="N38" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="21"/>
-      <c r="O38" s="20">
+      <c r="O38" s="21"/>
+      <c r="P38" s="20">
         <v>19990519</v>
       </c>
-      <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -8088,35 +8087,35 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
-      <c r="AO38" s="20">
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="20">
         <v>20030410</v>
       </c>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="22" t="s">
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AR38" s="21"/>
       <c r="AS38" s="21"/>
       <c r="AT38" s="21"/>
       <c r="AU38" s="21"/>
       <c r="AV38" s="21"/>
-      <c r="AW38" s="22" t="s">
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="26">
+      <c r="AY38" s="21"/>
+      <c r="AZ38" s="26">
         <v>101001031000</v>
       </c>
-      <c r="AZ38" s="21"/>
       <c r="BA38" s="21"/>
       <c r="BB38" s="21"/>
-      <c r="BC38" s="22" t="s">
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="BD38" s="22" t="s">
+      <c r="BE38" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BE38" s="21"/>
       <c r="BF38" s="21"/>
       <c r="BG38" s="21"/>
       <c r="BH38" s="21"/>
@@ -8167,14 +8166,14 @@
       <c r="DA38" s="21"/>
       <c r="DB38" s="21"/>
       <c r="DC38" s="21"/>
+      <c r="DD38" s="21"/>
     </row>
-    <row r="39" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20">
+    <row r="39" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20">
         <v>66678381</v>
       </c>
-      <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -8182,17 +8181,17 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="22" t="s">
+      <c r="L39" s="21"/>
+      <c r="M39" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="N39" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="N39" s="21"/>
-      <c r="O39" s="20">
+      <c r="O39" s="21"/>
+      <c r="P39" s="20">
         <v>19990519</v>
       </c>
-      <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
@@ -8217,35 +8216,35 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="21"/>
-      <c r="AO39" s="20">
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="20">
         <v>20150214</v>
       </c>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="22" t="s">
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
       <c r="AT39" s="21"/>
       <c r="AU39" s="21"/>
       <c r="AV39" s="21"/>
-      <c r="AW39" s="22" t="s">
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="26">
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="26">
         <v>101001034000</v>
       </c>
-      <c r="AZ39" s="21"/>
       <c r="BA39" s="21"/>
       <c r="BB39" s="21"/>
-      <c r="BC39" s="22" t="s">
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="BD39" s="22" t="s">
+      <c r="BE39" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BE39" s="21"/>
       <c r="BF39" s="21"/>
       <c r="BG39" s="21"/>
       <c r="BH39" s="21"/>
@@ -8269,39 +8268,37 @@
       <c r="BZ39" s="21"/>
       <c r="CA39" s="21"/>
       <c r="CB39" s="21"/>
-      <c r="CC39" s="22" t="s">
+      <c r="CC39" s="21"/>
+      <c r="CD39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="CD39" s="22" t="s">
+      <c r="CE39" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="CE39" s="22" t="s">
+      <c r="CF39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="CF39" s="21"/>
       <c r="CG39" s="21"/>
       <c r="CH39" s="21"/>
-      <c r="CI39" s="22" t="s">
+      <c r="CI39" s="21"/>
+      <c r="CJ39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="CJ39" s="20">
+      <c r="CK39" s="20">
         <v>30</v>
       </c>
-      <c r="CK39" s="22" t="s">
+      <c r="CL39" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="CL39" s="21"/>
       <c r="CM39" s="21"/>
       <c r="CN39" s="21"/>
       <c r="CO39" s="21"/>
       <c r="CP39" s="21"/>
       <c r="CQ39" s="21"/>
       <c r="CR39" s="21"/>
-      <c r="CS39" s="20">
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="20">
         <v>1</v>
-      </c>
-      <c r="CT39" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="CU39" s="22" t="s">
         <v>126</v>
@@ -8310,34 +8307,36 @@
         <v>126</v>
       </c>
       <c r="CW39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX39" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="CX39" s="20">
-        <v>4.7</v>
       </c>
       <c r="CY39" s="20">
         <v>4.7</v>
       </c>
       <c r="CZ39" s="20">
+        <v>4.7</v>
+      </c>
+      <c r="DA39" s="20">
         <v>0</v>
       </c>
-      <c r="DA39" s="22" t="s">
+      <c r="DB39" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="DB39" s="22" t="s">
+      <c r="DC39" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="DC39" s="22" t="s">
+      <c r="DD39" s="22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15">
+    <row r="40" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15">
         <v>34174567</v>
       </c>
-      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -8345,17 +8344,17 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="N40" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N40" s="16"/>
-      <c r="O40" s="15">
+      <c r="O40" s="16"/>
+      <c r="P40" s="15">
         <v>19240811</v>
       </c>
-      <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -8380,35 +8379,35 @@
       <c r="AL40" s="16"/>
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
-      <c r="AO40" s="15">
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="15">
         <v>20050214</v>
       </c>
-      <c r="AP40" s="16"/>
-      <c r="AQ40" s="17" t="s">
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR40" s="16"/>
       <c r="AS40" s="16"/>
       <c r="AT40" s="16"/>
       <c r="AU40" s="16"/>
       <c r="AV40" s="16"/>
-      <c r="AW40" s="17" t="s">
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX40" s="16"/>
-      <c r="AY40" s="25">
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="25">
         <v>101001034000</v>
       </c>
-      <c r="AZ40" s="16"/>
       <c r="BA40" s="16"/>
       <c r="BB40" s="16"/>
-      <c r="BC40" s="17" t="s">
+      <c r="BC40" s="16"/>
+      <c r="BD40" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD40" s="17" t="s">
+      <c r="BE40" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BE40" s="16"/>
       <c r="BF40" s="16"/>
       <c r="BG40" s="16"/>
       <c r="BH40" s="16"/>
@@ -8432,14 +8431,14 @@
       <c r="BZ40" s="16"/>
       <c r="CA40" s="16"/>
       <c r="CB40" s="16"/>
-      <c r="CC40" s="17" t="s">
+      <c r="CC40" s="16"/>
+      <c r="CD40" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="CD40" s="16"/>
-      <c r="CE40" s="17" t="s">
+      <c r="CE40" s="16"/>
+      <c r="CF40" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="CF40" s="16"/>
       <c r="CG40" s="16"/>
       <c r="CH40" s="16"/>
       <c r="CI40" s="16"/>
@@ -8463,14 +8462,14 @@
       <c r="DA40" s="16"/>
       <c r="DB40" s="16"/>
       <c r="DC40" s="16"/>
+      <c r="DD40" s="16"/>
     </row>
-    <row r="41" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15">
+    <row r="41" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15">
         <v>34174567</v>
       </c>
-      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -8478,17 +8477,17 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="17" t="s">
+      <c r="L41" s="16"/>
+      <c r="M41" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="M41" s="17" t="s">
+      <c r="N41" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N41" s="16"/>
-      <c r="O41" s="15">
+      <c r="O41" s="16"/>
+      <c r="P41" s="15">
         <v>19240811</v>
       </c>
-      <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -8513,35 +8512,35 @@
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
-      <c r="AO41" s="15">
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="15">
         <v>20050214</v>
       </c>
-      <c r="AP41" s="16"/>
-      <c r="AQ41" s="17" t="s">
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR41" s="16"/>
       <c r="AS41" s="16"/>
       <c r="AT41" s="16"/>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
-      <c r="AW41" s="17" t="s">
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AX41" s="16"/>
-      <c r="AY41" s="25">
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="25">
         <v>101001035000</v>
       </c>
-      <c r="AZ41" s="16"/>
       <c r="BA41" s="16"/>
       <c r="BB41" s="16"/>
-      <c r="BC41" s="17" t="s">
+      <c r="BC41" s="16"/>
+      <c r="BD41" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="BD41" s="17" t="s">
+      <c r="BE41" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BE41" s="16"/>
       <c r="BF41" s="16"/>
       <c r="BG41" s="16"/>
       <c r="BH41" s="16"/>
@@ -8565,37 +8564,35 @@
       <c r="BZ41" s="16"/>
       <c r="CA41" s="16"/>
       <c r="CB41" s="16"/>
-      <c r="CC41" s="17" t="s">
+      <c r="CC41" s="16"/>
+      <c r="CD41" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="CD41" s="16"/>
-      <c r="CE41" s="17" t="s">
+      <c r="CE41" s="16"/>
+      <c r="CF41" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="CF41" s="16"/>
       <c r="CG41" s="16"/>
       <c r="CH41" s="16"/>
-      <c r="CI41" s="17" t="s">
+      <c r="CI41" s="16"/>
+      <c r="CJ41" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="CJ41" s="15">
+      <c r="CK41" s="15">
         <v>5</v>
       </c>
-      <c r="CK41" s="17" t="s">
+      <c r="CL41" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="CL41" s="16"/>
       <c r="CM41" s="16"/>
       <c r="CN41" s="16"/>
       <c r="CO41" s="16"/>
       <c r="CP41" s="16"/>
       <c r="CQ41" s="16"/>
       <c r="CR41" s="16"/>
-      <c r="CS41" s="15">
+      <c r="CS41" s="16"/>
+      <c r="CT41" s="15">
         <v>1</v>
-      </c>
-      <c r="CT41" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="CU41" s="17" t="s">
         <v>126</v>
@@ -8604,34 +8601,36 @@
         <v>126</v>
       </c>
       <c r="CW41" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX41" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="CX41" s="15">
-        <v>14.7</v>
       </c>
       <c r="CY41" s="15">
         <v>14.7</v>
       </c>
       <c r="CZ41" s="15">
+        <v>14.7</v>
+      </c>
+      <c r="DA41" s="15">
         <v>0</v>
       </c>
-      <c r="DA41" s="17" t="s">
+      <c r="DB41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DB41" s="17" t="s">
+      <c r="DC41" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="DC41" s="17" t="s">
+      <c r="DD41" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20">
+    <row r="42" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20">
         <v>45285678</v>
       </c>
-      <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -8639,17 +8638,17 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="21"/>
+      <c r="M42" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="N42" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="20">
+      <c r="O42" s="21"/>
+      <c r="P42" s="20">
         <v>19890315</v>
       </c>
-      <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
@@ -8674,35 +8673,35 @@
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
       <c r="AN42" s="21"/>
-      <c r="AO42" s="20">
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="20">
         <v>20150702</v>
       </c>
-      <c r="AP42" s="21"/>
-      <c r="AQ42" s="22" t="s">
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
       <c r="AT42" s="21"/>
       <c r="AU42" s="21"/>
       <c r="AV42" s="21"/>
-      <c r="AW42" s="22" t="s">
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="26">
+      <c r="AY42" s="21"/>
+      <c r="AZ42" s="26">
         <v>101001055000</v>
       </c>
-      <c r="AZ42" s="21"/>
       <c r="BA42" s="21"/>
       <c r="BB42" s="21"/>
-      <c r="BC42" s="22" t="s">
+      <c r="BC42" s="21"/>
+      <c r="BD42" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BD42" s="22" t="s">
+      <c r="BE42" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BE42" s="21"/>
       <c r="BF42" s="21"/>
       <c r="BG42" s="21"/>
       <c r="BH42" s="21"/>
@@ -8726,26 +8725,26 @@
       <c r="BZ42" s="21"/>
       <c r="CA42" s="21"/>
       <c r="CB42" s="21"/>
-      <c r="CC42" s="22" t="s">
+      <c r="CC42" s="21"/>
+      <c r="CD42" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="CD42" s="21"/>
-      <c r="CE42" s="22" t="s">
+      <c r="CE42" s="21"/>
+      <c r="CF42" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="CF42" s="21"/>
       <c r="CG42" s="21"/>
       <c r="CH42" s="21"/>
-      <c r="CI42" s="22" t="s">
+      <c r="CI42" s="21"/>
+      <c r="CJ42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="CJ42" s="20">
+      <c r="CK42" s="20">
         <v>6</v>
       </c>
-      <c r="CK42" s="22" t="s">
+      <c r="CL42" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL42" s="21"/>
       <c r="CM42" s="21"/>
       <c r="CN42" s="21"/>
       <c r="CO42" s="21"/>
@@ -8763,14 +8762,14 @@
       <c r="DA42" s="21"/>
       <c r="DB42" s="21"/>
       <c r="DC42" s="21"/>
+      <c r="DD42" s="21"/>
     </row>
-    <row r="43" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20">
+    <row r="43" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20">
         <v>45285678</v>
       </c>
-      <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -8778,17 +8777,17 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="22" t="s">
+      <c r="L43" s="21"/>
+      <c r="M43" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="M43" s="22" t="s">
+      <c r="N43" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="20">
+      <c r="O43" s="21"/>
+      <c r="P43" s="20">
         <v>19890315</v>
       </c>
-      <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
@@ -8813,35 +8812,35 @@
       <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
-      <c r="AO43" s="20">
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="20">
         <v>20000702</v>
       </c>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="22" t="s">
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
       <c r="AT43" s="21"/>
       <c r="AU43" s="21"/>
       <c r="AV43" s="21"/>
-      <c r="AW43" s="22" t="s">
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="26">
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="26">
         <v>102001056000</v>
       </c>
-      <c r="AZ43" s="21"/>
       <c r="BA43" s="21"/>
       <c r="BB43" s="21"/>
-      <c r="BC43" s="22" t="s">
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="BD43" s="22" t="s">
+      <c r="BE43" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BE43" s="21"/>
       <c r="BF43" s="21"/>
       <c r="BG43" s="21"/>
       <c r="BH43" s="21"/>
@@ -8865,37 +8864,35 @@
       <c r="BZ43" s="21"/>
       <c r="CA43" s="21"/>
       <c r="CB43" s="21"/>
-      <c r="CC43" s="22" t="s">
+      <c r="CC43" s="21"/>
+      <c r="CD43" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="CD43" s="21"/>
-      <c r="CE43" s="22" t="s">
+      <c r="CE43" s="21"/>
+      <c r="CF43" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="CF43" s="21"/>
       <c r="CG43" s="21"/>
       <c r="CH43" s="21"/>
-      <c r="CI43" s="22" t="s">
+      <c r="CI43" s="21"/>
+      <c r="CJ43" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="CJ43" s="20">
+      <c r="CK43" s="20">
         <v>6</v>
       </c>
-      <c r="CK43" s="22" t="s">
+      <c r="CL43" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL43" s="21"/>
       <c r="CM43" s="21"/>
       <c r="CN43" s="21"/>
       <c r="CO43" s="21"/>
       <c r="CP43" s="21"/>
       <c r="CQ43" s="21"/>
       <c r="CR43" s="21"/>
-      <c r="CS43" s="20">
+      <c r="CS43" s="21"/>
+      <c r="CT43" s="20">
         <v>2</v>
-      </c>
-      <c r="CT43" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="CU43" s="22" t="s">
         <v>126</v>
@@ -8904,24 +8901,27 @@
         <v>126</v>
       </c>
       <c r="CW43" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX43" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="CX43" s="20">
+      <c r="CY43" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="CY43" s="20">
+      <c r="CZ43" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="CZ43" s="20">
+      <c r="DA43" s="20">
         <v>1</v>
       </c>
-      <c r="DA43" s="22" t="s">
+      <c r="DB43" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="DB43" s="22" t="s">
+      <c r="DC43" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="DC43" s="22" t="s">
+      <c r="DD43" s="22" t="s">
         <v>167</v>
       </c>
     </row>
